--- a/Collections/Foreign_various/Foreighn_originals.xlsx
+++ b/Collections/Foreign_various/Foreighn_originals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Foreign_various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC4A432-CF52-452A-825B-F7FA2DF908E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829921A1-1694-4467-AC3B-4FB1A511719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Europe" sheetId="1" r:id="rId1"/>
@@ -2207,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
@@ -5403,7 +5403,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F52))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52 F54">
+  <conditionalFormatting sqref="F54 F52">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5621,7 +5621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6EDC4E-4736-442F-84EB-BCEB962219DE}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -7762,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EC1F7-35EC-4741-AB28-8E1CFEB562B5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
@@ -9538,7 +9538,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35 F46 F58">
+  <conditionalFormatting sqref="F46 F35 F58">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9572,7 +9572,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
+  <conditionalFormatting sqref="F32 F20 F44 F55 F67">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9589,7 +9589,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F25 F37 F48 F60">
+  <conditionalFormatting sqref="F25 F13 F37 F48 F60">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9606,7 +9606,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F40 F51 F63">
+  <conditionalFormatting sqref="F40 F16 F51 F63">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9640,7 +9640,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
+  <conditionalFormatting sqref="F27 F15 F39 F50 F62">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9657,7 +9657,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52 F29 F64">
+  <conditionalFormatting sqref="F29 F52 F64">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9674,7 +9674,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65 F42">
+  <conditionalFormatting sqref="F42 F65">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9725,7 +9725,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49 F26 F61">
+  <conditionalFormatting sqref="F26 F49 F61">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9759,7 +9759,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F31 F43 F54 F66">
+  <conditionalFormatting sqref="F31 F19 F43 F54 F66">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9776,7 +9776,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36 F24 F59">
+  <conditionalFormatting sqref="F24 F36 F59">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9793,7 +9793,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
+  <conditionalFormatting sqref="F34 F22 F47 F57 F69">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9810,7 +9810,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F45 F56 F68">
+  <conditionalFormatting sqref="F45 F33 F56 F68">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10137,13 +10137,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10151,9 +10151,10 @@
     <col min="1" max="1" width="4.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -10186,22 +10187,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f>SUM(Europe!I3:I112)+SUM(America!I3:I25)+SUM(Africa!I3:I12)+SUM('Australia and Oceania'!I3:I21)+SUM(Asia!I3:I69)-100</f>
+        <v>131.18000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>

--- a/Collections/Foreign_various/Foreighn_originals.xlsx
+++ b/Collections/Foreign_various/Foreighn_originals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Foreign_various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829921A1-1694-4467-AC3B-4FB1A511719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C48F16-FC4C-49F7-9DFC-88FFB2E6D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Europe" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="259">
   <si>
     <t>-</t>
   </si>
@@ -139,21 +139,6 @@
   </si>
   <si>
     <t>AU</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>1 tenge</t>
-  </si>
-  <si>
-    <t>5 tenge</t>
-  </si>
-  <si>
-    <t>10 tenge</t>
-  </si>
-  <si>
-    <t>50 tenge</t>
   </si>
   <si>
     <t>Sweden</t>
@@ -1138,15 +1123,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="98">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1884,6 +1860,15 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
@@ -1934,9 +1919,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2205,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2346,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2415,13 +2400,13 @@
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2429,24 +2414,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>2012</v>
+        <v>1981</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2460,18 +2445,18 @@
         <v>13</v>
       </c>
       <c r="I10" s="4">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2485,18 +2470,18 @@
         <v>13</v>
       </c>
       <c r="I11" s="4">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>2000</v>
+        <v>1982</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2504,24 +2489,24 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="4">
-        <v>0.25</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>2021</v>
+        <v>1986</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2529,24 +2514,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="4">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2560,18 +2545,18 @@
         <v>13</v>
       </c>
       <c r="I14" s="4">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2585,18 +2570,18 @@
         <v>13</v>
       </c>
       <c r="I15" s="4">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2604,24 +2589,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="4">
-        <v>0.31</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>1982</v>
+        <v>1995</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2629,24 +2614,24 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="4">
-        <v>1.1200000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>1986</v>
+        <v>1966</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2654,24 +2639,24 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="4">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2679,24 +2664,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>1972</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2710,18 +2695,18 @@
         <v>13</v>
       </c>
       <c r="I20" s="4">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2735,18 +2720,18 @@
         <v>13</v>
       </c>
       <c r="I21" s="4">
-        <v>1.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2760,18 +2745,18 @@
         <v>13</v>
       </c>
       <c r="I22" s="4">
-        <v>0.56000000000000005</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>1966</v>
+        <v>1973</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2779,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="4">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2793,10 +2778,10 @@
         <v>1985</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2804,24 +2789,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>2008</v>
+        <v>1963</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2829,24 +2814,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="4">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2854,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>13</v>
@@ -2865,13 +2850,13 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2879,24 +2864,24 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I27" s="4">
-        <v>3.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>1973</v>
+        <v>1996</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2915,13 +2900,13 @@
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2929,24 +2914,24 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="4">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>1963</v>
+        <v>1995</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2954,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>13</v>
@@ -2965,13 +2950,13 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2979,24 +2964,24 @@
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I31" s="4">
-        <v>0.31</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3004,24 +2989,24 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="4">
-        <v>0.15</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3035,18 +3020,18 @@
         <v>13</v>
       </c>
       <c r="I33" s="4">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3054,24 +3039,24 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="4">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>1995</v>
+        <v>1969</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3079,49 +3064,51 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I35" s="4">
-        <v>0.38</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>1994</v>
+        <v>1973</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I36" s="4">
-        <v>0.59</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3129,24 +3116,24 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I37" s="4">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>2005</v>
+        <v>1923</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3154,24 +3141,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="4">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3179,24 +3166,24 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I39" s="4">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>1969</v>
+        <v>1985</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3204,18 +3191,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I40" s="4">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>1973</v>
+        <v>1998</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>48</v>
@@ -3223,9 +3210,7 @@
       <c r="C41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5">
         <v>1</v>
@@ -3237,18 +3222,18 @@
         <v>13</v>
       </c>
       <c r="I41" s="4">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3256,18 +3241,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I42" s="4">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>1923</v>
+        <v>1994</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>48</v>
@@ -3281,24 +3266,24 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I43" s="4">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3306,24 +3291,24 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I44" s="4">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3331,24 +3316,24 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I45" s="4">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3356,24 +3341,24 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I46" s="4">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3381,24 +3366,24 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I47" s="4">
-        <v>0.16</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3406,24 +3391,24 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I48" s="4">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>1993</v>
+        <v>2009</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3437,18 +3422,18 @@
         <v>13</v>
       </c>
       <c r="I49" s="4">
-        <v>0.16</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>2003</v>
+        <v>1920</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3456,24 +3441,24 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I50" s="4">
-        <v>0.22</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3487,18 +3472,18 @@
         <v>13</v>
       </c>
       <c r="I51" s="4">
-        <v>0.27</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>2003</v>
+        <v>1979</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3512,18 +3497,18 @@
         <v>13</v>
       </c>
       <c r="I52" s="4">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>1998</v>
+        <v>1972</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3531,24 +3516,24 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I53" s="4">
-        <v>0.95</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>2009</v>
+        <v>1967</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3556,24 +3541,24 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I54" s="4">
-        <v>2.36</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>1920</v>
+        <v>2000</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3587,15 +3572,15 @@
         <v>13</v>
       </c>
       <c r="I55" s="4">
-        <v>4.1100000000000003</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>62</v>
@@ -3612,15 +3597,15 @@
         <v>13</v>
       </c>
       <c r="I56" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>1979</v>
+        <v>1999</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>63</v>
@@ -3637,18 +3622,18 @@
         <v>13</v>
       </c>
       <c r="I57" s="4">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>1972</v>
+        <v>1999</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3656,24 +3641,24 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I58" s="4">
-        <v>0.26</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>1967</v>
+        <v>1999</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -3681,24 +3666,24 @@
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I59" s="4">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3706,21 +3691,21 @@
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I60" s="4">
-        <v>0.11</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>67</v>
@@ -3737,18 +3722,18 @@
         <v>13</v>
       </c>
       <c r="I61" s="4">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3762,18 +3747,18 @@
         <v>13</v>
       </c>
       <c r="I62" s="4">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3781,24 +3766,24 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I63" s="4">
-        <v>0.14000000000000001</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3812,18 +3797,18 @@
         <v>13</v>
       </c>
       <c r="I64" s="4">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3831,24 +3816,24 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I65" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3856,24 +3841,24 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I66" s="4">
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3881,24 +3866,24 @@
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I67" s="4">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3906,24 +3891,24 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I68" s="4">
-        <v>1.48</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3931,24 +3916,24 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I69" s="4">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3956,24 +3941,24 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I70" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3987,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="I71" s="4">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3995,10 +3980,10 @@
         <v>2009</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -4012,18 +3997,18 @@
         <v>13</v>
       </c>
       <c r="I72" s="4">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -4037,18 +4022,18 @@
         <v>13</v>
       </c>
       <c r="I73" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -4056,24 +4041,24 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I74" s="4">
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4087,18 +4072,18 @@
         <v>13</v>
       </c>
       <c r="I75" s="4">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4106,24 +4091,24 @@
         <v>1</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I76" s="4">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4131,24 +4116,24 @@
         <v>1</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I77" s="4">
-        <v>0.39</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>1986</v>
+        <v>2013</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4156,24 +4141,24 @@
         <v>1</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I78" s="4">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4187,18 +4172,18 @@
         <v>13</v>
       </c>
       <c r="I79" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4212,18 +4197,18 @@
         <v>13</v>
       </c>
       <c r="I80" s="4">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4231,24 +4216,24 @@
         <v>1</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I81" s="4">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -4256,24 +4241,24 @@
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I82" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4281,24 +4266,24 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I83" s="4">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>1978</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4312,18 +4297,18 @@
         <v>13</v>
       </c>
       <c r="I84" s="4">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>103</v>
+        <v>1978</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4337,18 +4322,18 @@
         <v>13</v>
       </c>
       <c r="I85" s="4">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>2009</v>
+        <v>1967</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4356,24 +4341,24 @@
         <v>1</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I86" s="4">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4381,24 +4366,24 @@
         <v>1</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I87" s="4">
-        <v>0.88</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>2008</v>
+        <v>1980</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4406,24 +4391,24 @@
         <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I88" s="4">
-        <v>0.85</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <v>1978</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>111</v>
+        <v>1985</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4431,24 +4416,24 @@
         <v>1</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I89" s="4">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>1978</v>
-      </c>
-      <c r="B90" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4462,18 +4447,18 @@
         <v>13</v>
       </c>
       <c r="I90" s="4">
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>1967</v>
+        <v>1980</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4481,24 +4466,24 @@
         <v>1</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I91" s="4">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4506,24 +4491,24 @@
         <v>1</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I92" s="4">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>1980</v>
+        <v>1993</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4537,15 +4522,15 @@
         <v>13</v>
       </c>
       <c r="I93" s="4">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>115</v>
@@ -4562,15 +4547,15 @@
         <v>13</v>
       </c>
       <c r="I94" s="4">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>116</v>
@@ -4581,24 +4566,24 @@
         <v>1</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I95" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -4612,7 +4597,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="4">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4620,10 +4605,10 @@
         <v>1993</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -4637,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="I97" s="4">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4645,10 +4630,10 @@
         <v>1993</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -4656,24 +4641,24 @@
         <v>1</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="4">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4681,24 +4666,24 @@
         <v>1</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="4">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4706,24 +4691,24 @@
         <v>1</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I100" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4737,18 +4722,18 @@
         <v>13</v>
       </c>
       <c r="I101" s="4">
-        <v>0.25</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4762,18 +4747,18 @@
         <v>13</v>
       </c>
       <c r="I102" s="4">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4787,18 +4772,18 @@
         <v>13</v>
       </c>
       <c r="I103" s="4">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>1992</v>
+        <v>2014</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -4806,24 +4791,24 @@
         <v>1</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I104" s="4">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -4831,24 +4816,24 @@
         <v>1</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I105" s="4">
-        <v>0.89</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>1996</v>
+        <v>2013</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4856,24 +4841,24 @@
         <v>1</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I106" s="4">
-        <v>3.11</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4887,131 +4872,6 @@
         <v>13</v>
       </c>
       <c r="I107" s="4">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="5">
-        <v>1</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="5">
-        <v>1</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="5">
-        <v>1</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" s="4">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="5">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="5">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="4">
         <v>0.59</v>
       </c>
     </row>
@@ -5024,12 +4884,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F3 F78:F80 F5 F16:F17 F19:F26 F91 F68:F75 F7:F14 F28:F35 F55:F66 F37:F50">
-    <cfRule type="containsText" dxfId="94" priority="85" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F73:F75 F5 F11:F12 F14:F21 F86 F63:F70 F23:F30 F50:F61 F32:F45 F7:F9">
+    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F80 F3 F5 F16:F17 F19:F26 F68:F75 F91 F7:F14 F28:F35 F55:F66 F37:F50">
+  <conditionalFormatting sqref="F73:F75 F3 F5 F11:F12 F14:F21 F63:F70 F86 F23:F30 F50:F61 F32:F45 F7:F9">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5042,7 +4902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="93" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5058,12 +4918,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F86 F88:F95">
-    <cfRule type="containsText" dxfId="92" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F81))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F86 F88:F95">
+  <conditionalFormatting sqref="F76:F81 F83:F90">
+    <cfRule type="containsText" dxfId="89" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:F81 F83:F90">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5075,12 +4935,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5092,12 +4952,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="90" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+  <conditionalFormatting sqref="F71">
+    <cfRule type="containsText" dxfId="87" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5109,12 +4969,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="89" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F77))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
+  <conditionalFormatting sqref="F72">
+    <cfRule type="containsText" dxfId="86" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5126,12 +4986,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="88" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="85" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5143,12 +5003,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="87" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="84" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5160,12 +5020,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F87))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
+  <conditionalFormatting sqref="F82">
+    <cfRule type="containsText" dxfId="83" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F82))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5177,12 +5037,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
-    <cfRule type="containsText" dxfId="85" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F104))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="F99">
+    <cfRule type="containsText" dxfId="82" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F99))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5194,12 +5054,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F109">
-    <cfRule type="containsText" dxfId="84" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F105))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F109">
+  <conditionalFormatting sqref="F100:F104">
+    <cfRule type="containsText" dxfId="81" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F100))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100:F104">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5211,12 +5071,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="containsText" dxfId="83" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F96))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F91">
+    <cfRule type="containsText" dxfId="80" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F91))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5228,12 +5088,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="containsText" dxfId="82" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F97))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F92">
+    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F92))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5245,12 +5105,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F98))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="F93">
+    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F93))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5262,12 +5122,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
-    <cfRule type="containsText" dxfId="80" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F99))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="F94">
+    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F94))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5279,12 +5139,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
-    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F100))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F95">
+    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F95))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5296,12 +5156,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
-    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F101))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
+  <conditionalFormatting sqref="F96">
+    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F96))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5313,12 +5173,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102">
-    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F102))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102">
+  <conditionalFormatting sqref="F97">
+    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F97))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5330,12 +5190,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103">
-    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F103))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103">
+  <conditionalFormatting sqref="F98">
+    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F98))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5348,7 +5208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5364,12 +5224,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="71" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5381,12 +5241,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5398,12 +5258,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52 F54">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F52))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54 F52">
+  <conditionalFormatting sqref="F47 F49">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49 F47">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5415,12 +5275,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5432,12 +5292,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5449,12 +5309,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F110))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
+  <conditionalFormatting sqref="F105">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F105))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5466,12 +5326,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F111))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
+  <conditionalFormatting sqref="F106">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F106))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5483,12 +5343,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F112))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F107))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5506,114 +5366,109 @@
     <hyperlink ref="H3" r:id="rId3" xr:uid="{73746141-2CB9-4F65-8414-AE5091BD68DA}"/>
     <hyperlink ref="H7" r:id="rId4" xr:uid="{772B1A5F-8C15-4F38-A49C-99504EA40DBE}"/>
     <hyperlink ref="H8" r:id="rId5" xr:uid="{6CC97F39-E960-42ED-B82D-F83E7058897B}"/>
-    <hyperlink ref="H9" r:id="rId6" xr:uid="{2F1C39A6-67DE-431E-B6ED-6BE4BA1A0E6E}"/>
-    <hyperlink ref="H10" r:id="rId7" xr:uid="{8EC82493-A6EF-42E1-A239-D21CFEB96202}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{491FE0E1-16CE-4B2B-BCC1-11F68C308CC3}"/>
-    <hyperlink ref="H12" r:id="rId9" xr:uid="{3F865678-2C05-4053-9B95-66F1B5D27ECF}"/>
-    <hyperlink ref="H13" r:id="rId10" xr:uid="{E895CFCD-E082-46AF-B3E0-D1A510379C0D}"/>
-    <hyperlink ref="H22" r:id="rId11" xr:uid="{E6A28BA7-3EB2-4017-A155-22D97C11E776}"/>
-    <hyperlink ref="H19" r:id="rId12" xr:uid="{D93FB45A-7B25-480C-B2F1-D11B42E295CB}"/>
-    <hyperlink ref="H24" r:id="rId13" xr:uid="{7010399F-C9A8-47D9-8454-A1EACAF50E28}"/>
-    <hyperlink ref="H25" r:id="rId14" xr:uid="{6DEBA247-016B-4E85-AFF7-48DE8350F99E}"/>
-    <hyperlink ref="H26" r:id="rId15" xr:uid="{D99A60D2-9A95-4DEB-9C06-74A21B63270E}"/>
-    <hyperlink ref="H28" r:id="rId16" xr:uid="{361B67EE-0C93-4096-87E0-30865EE84AAE}"/>
-    <hyperlink ref="H29" r:id="rId17" xr:uid="{8D6281C4-D5A4-4DAC-AA7B-6E7206C14F70}"/>
-    <hyperlink ref="H40" r:id="rId18" xr:uid="{27C88EA8-1370-48D4-8302-6DE68610591B}"/>
-    <hyperlink ref="H41" r:id="rId19" xr:uid="{A88FBB92-61E6-4C47-8CB5-4F06A45190B3}"/>
-    <hyperlink ref="H42" r:id="rId20" xr:uid="{8F1FAF4C-93BD-4C36-84CC-348CB8ABDD26}"/>
-    <hyperlink ref="H43" r:id="rId21" xr:uid="{85784056-B425-4B8F-906D-4EDF2C066105}"/>
-    <hyperlink ref="H44" r:id="rId22" xr:uid="{B4071C32-B9A1-43F8-8F4B-5D149523D148}"/>
-    <hyperlink ref="H46" r:id="rId23" xr:uid="{BB4B6C4C-8600-4208-9167-A5DF0E6CA280}"/>
-    <hyperlink ref="H47" r:id="rId24" xr:uid="{82E0B9C2-776F-4024-9F47-0D275FBF9A8E}"/>
-    <hyperlink ref="H48" r:id="rId25" xr:uid="{D3B04703-845C-41AD-B1C8-26775B911058}"/>
-    <hyperlink ref="H55" r:id="rId26" xr:uid="{A9FB737F-7E9F-447D-B09B-DA4C58C66204}"/>
-    <hyperlink ref="H58" r:id="rId27" xr:uid="{887A7972-6D35-46DC-9C06-CCC8250EC43F}"/>
-    <hyperlink ref="H56" r:id="rId28" xr:uid="{5A09ADB0-F08A-4609-87DE-786FCA31E493}"/>
-    <hyperlink ref="H57" r:id="rId29" xr:uid="{571B95A7-4FFC-4966-9B5C-FD99C13F51EA}"/>
-    <hyperlink ref="H59" r:id="rId30" xr:uid="{FCB9ADB7-2CA7-4FCE-8E7E-DEC9CF2BA222}"/>
-    <hyperlink ref="H61" r:id="rId31" xr:uid="{8A7988FE-9A8C-4412-9EA2-FA9C2448DD52}"/>
-    <hyperlink ref="H62" r:id="rId32" xr:uid="{140048C0-36FA-4F5F-8C86-5359A352CAAA}"/>
-    <hyperlink ref="H16" r:id="rId33" xr:uid="{54B623BC-DB92-4E8C-881B-D09C461517F4}"/>
-    <hyperlink ref="H14" r:id="rId34" xr:uid="{1336EED8-0577-4106-A205-CEBD23169959}"/>
-    <hyperlink ref="H63" r:id="rId35" xr:uid="{5AE8628B-A6AC-4465-BD4E-F82D7A992971}"/>
-    <hyperlink ref="H66" r:id="rId36" xr:uid="{5CF7566F-CBE0-4F25-9013-93E6C3867D34}"/>
-    <hyperlink ref="H91" r:id="rId37" xr:uid="{1C353C88-9EE8-4F55-ABF4-3CDB7B4E6AFA}"/>
-    <hyperlink ref="H73" r:id="rId38" xr:uid="{A4884050-FCBA-4619-993B-8E09E8C3C70B}"/>
-    <hyperlink ref="H75" r:id="rId39" xr:uid="{58D76656-D3D8-42D0-BC20-8510076538AB}"/>
-    <hyperlink ref="H78" r:id="rId40" xr:uid="{C0E7B505-5AEC-4726-BC3C-849B7BDA23D9}"/>
-    <hyperlink ref="H64" r:id="rId41" xr:uid="{8C7DE950-390F-4072-944E-544CAC30E1E2}"/>
-    <hyperlink ref="H67" r:id="rId42" xr:uid="{B704CBA7-EC39-4C16-9B7C-5A1F23168BB8}"/>
-    <hyperlink ref="H71" r:id="rId43" xr:uid="{77992806-B822-4851-8E7E-B16BCD52945D}"/>
-    <hyperlink ref="H74" r:id="rId44" xr:uid="{70DB7A6C-EE09-443B-AD3C-19A4D772B8A8}"/>
-    <hyperlink ref="H69" r:id="rId45" xr:uid="{D424DDC5-5012-4B92-A954-F4FB9A628B30}"/>
-    <hyperlink ref="H79" r:id="rId46" xr:uid="{0B10C842-555F-4DE2-9434-D8A68A89D8EB}"/>
-    <hyperlink ref="H65" r:id="rId47" xr:uid="{C77D7737-0D5E-4663-A3E3-874018F1FFE3}"/>
-    <hyperlink ref="H68" r:id="rId48" xr:uid="{F1705702-B968-4193-861D-2AB08339CEE2}"/>
-    <hyperlink ref="H72" r:id="rId49" xr:uid="{D1806A47-31AD-4D52-9D39-FCC2CFADBCA7}"/>
-    <hyperlink ref="H77" r:id="rId50" xr:uid="{6D5ED102-4BF2-4DF0-9937-E6866027A220}"/>
-    <hyperlink ref="H80" r:id="rId51" xr:uid="{772C27DA-BD2C-4F9A-A4D3-5C6979B2A4F9}"/>
-    <hyperlink ref="H82" r:id="rId52" xr:uid="{EE876AD6-690E-4842-9C9C-46D511C113AC}"/>
-    <hyperlink ref="H85" r:id="rId53" xr:uid="{EDBE8CFB-1752-473F-8585-E99FE96B416C}"/>
-    <hyperlink ref="H88" r:id="rId54" xr:uid="{730ADE1D-7AB1-4045-9605-7178FD603068}"/>
-    <hyperlink ref="H94" r:id="rId55" xr:uid="{8C1B7032-C130-4830-8768-7433E109FA02}"/>
-    <hyperlink ref="H83" r:id="rId56" xr:uid="{FC41B6AC-5E57-43F7-9402-1C9117121189}"/>
-    <hyperlink ref="H86" r:id="rId57" xr:uid="{9E952813-F017-47F5-9544-C1D5E758C359}"/>
-    <hyperlink ref="H89" r:id="rId58" xr:uid="{AD155B72-4E79-4429-A06A-2C4B16FFF33D}"/>
-    <hyperlink ref="H92" r:id="rId59" xr:uid="{F6456D77-05F5-4173-B6CA-70260CBB0A58}"/>
-    <hyperlink ref="H95" r:id="rId60" xr:uid="{48433DED-C1F8-4D6C-B214-3A279505B2D6}"/>
-    <hyperlink ref="H81" r:id="rId61" xr:uid="{6B52B382-D1D4-4DFB-B626-874F8F7EDF18}"/>
-    <hyperlink ref="H84" r:id="rId62" xr:uid="{D24AAA7A-A72E-4097-BD9D-A877399EE09E}"/>
-    <hyperlink ref="H87" r:id="rId63" xr:uid="{B5167D5B-4C9D-46DE-A07F-27373B9B2DE4}"/>
-    <hyperlink ref="H90" r:id="rId64" xr:uid="{0C5F9D97-8070-4C07-8BB3-8B4B505E347B}"/>
-    <hyperlink ref="H93" r:id="rId65" xr:uid="{9EBA3E94-3443-46E5-8FAE-260C4505C2E0}"/>
-    <hyperlink ref="H96" r:id="rId66" xr:uid="{14F7D100-BBD2-468A-8F3F-D75D96FC7685}"/>
-    <hyperlink ref="H76" r:id="rId67" xr:uid="{2083F290-F1F6-478A-8B25-82B485B2F3C9}"/>
-    <hyperlink ref="H70" r:id="rId68" xr:uid="{D94A52F2-BAB9-460F-BBEA-98F02A7FDA35}"/>
-    <hyperlink ref="H23" r:id="rId69" xr:uid="{356A992B-7C92-430E-BC27-C451BB111F05}"/>
-    <hyperlink ref="H15" r:id="rId70" xr:uid="{B1663DD2-D1A3-494E-BB22-F085B519E4E7}"/>
-    <hyperlink ref="H18" r:id="rId71" xr:uid="{EECAB09E-B6D1-4B40-A043-FB12E69D4217}"/>
-    <hyperlink ref="H21" r:id="rId72" xr:uid="{5124A3CA-466F-4B8B-BC8A-0E61FD25AD79}"/>
-    <hyperlink ref="H31" r:id="rId73" xr:uid="{A9B7712E-C0ED-4D7B-BC92-9BBE06E6DA34}"/>
-    <hyperlink ref="H32" r:id="rId74" xr:uid="{1CD5C499-E803-406F-8C0F-7D32FE055F9D}"/>
-    <hyperlink ref="H33" r:id="rId75" xr:uid="{861F959A-BB4E-49F0-9883-3F7D3A65C972}"/>
-    <hyperlink ref="H34" r:id="rId76" xr:uid="{B00D18A3-39BF-4A4C-BE3B-C1D2830C1E48}"/>
-    <hyperlink ref="H38" r:id="rId77" xr:uid="{74FE14DD-CBA5-4C95-BC88-BBF2012B3C5F}"/>
-    <hyperlink ref="H30" r:id="rId78" xr:uid="{9B0B094A-37C5-4822-90D8-9D93F902484F}"/>
-    <hyperlink ref="H60" r:id="rId79" xr:uid="{35903F7D-00A7-43CD-8F44-E9000683A9A3}"/>
-    <hyperlink ref="H39" r:id="rId80" xr:uid="{67189A5A-22B6-42C9-AA91-8FA46DC05B1B}"/>
-    <hyperlink ref="H45" r:id="rId81" xr:uid="{F02C8D74-71A0-4E52-A4CC-A4C959B933D0}"/>
-    <hyperlink ref="H99" r:id="rId82" xr:uid="{7ABFE093-A499-460B-8A3A-747B903CC0D8}"/>
-    <hyperlink ref="H102" r:id="rId83" xr:uid="{2B763DFA-8E55-4423-94F6-F97B6347E7BA}"/>
-    <hyperlink ref="H97" r:id="rId84" xr:uid="{6780C0A0-5A66-4E8D-AF30-69EA7BFFD49D}"/>
-    <hyperlink ref="H100" r:id="rId85" xr:uid="{DB91D74C-E4FC-436A-AEF8-93FBD178CBBE}"/>
-    <hyperlink ref="H103" r:id="rId86" xr:uid="{B7219162-37EA-4A3E-B4C7-3F521EBFD599}"/>
-    <hyperlink ref="H98" r:id="rId87" xr:uid="{CE50F847-61E3-4A9F-8A44-97EECA535CE9}"/>
-    <hyperlink ref="H101" r:id="rId88" xr:uid="{D03A9A92-D0F9-4AFC-9B83-5CC2D1783E1B}"/>
-    <hyperlink ref="H104" r:id="rId89" xr:uid="{A8395A87-E3FD-4CE6-AFB3-200935279EA6}"/>
-    <hyperlink ref="H107" r:id="rId90" xr:uid="{013730CB-39A8-4695-9BF8-C407D6F34505}"/>
-    <hyperlink ref="H105" r:id="rId91" xr:uid="{27CF8E39-5B7F-4666-918E-5055CEFD74BC}"/>
-    <hyperlink ref="H108" r:id="rId92" xr:uid="{EDB2E061-0439-4233-8D8F-01AA45D54C99}"/>
-    <hyperlink ref="H106" r:id="rId93" xr:uid="{02CBD326-C1AD-4AAC-97A3-A39AC2978547}"/>
-    <hyperlink ref="H109" r:id="rId94" xr:uid="{6F247405-8D2E-4DC1-939B-8BF6AACD2BF1}"/>
-    <hyperlink ref="H112" r:id="rId95" xr:uid="{D0E30AF2-28B4-409A-8AAB-442272946FD0}"/>
-    <hyperlink ref="H110" r:id="rId96" xr:uid="{32D50C06-9C81-414D-B5C1-43F98F5AAEBC}"/>
-    <hyperlink ref="H111" r:id="rId97" xr:uid="{9B663D42-A486-4D62-8F2A-96A28A5757C7}"/>
-    <hyperlink ref="H6" r:id="rId98" xr:uid="{A4F101D3-BF5A-4795-A827-98C9ACD6D091}"/>
-    <hyperlink ref="H27" r:id="rId99" xr:uid="{79FB6451-2479-47C4-A438-3105DA92B082}"/>
-    <hyperlink ref="H49" r:id="rId100" xr:uid="{3CD53464-4392-44A1-A246-A2BC21D8DAD5}"/>
-    <hyperlink ref="H50" r:id="rId101" xr:uid="{EE667E24-A06D-4A51-A99E-A04B8374DE3A}"/>
-    <hyperlink ref="H51" r:id="rId102" xr:uid="{BC9F746E-B48C-4316-86A7-7DF5C7073E7E}"/>
-    <hyperlink ref="H52" r:id="rId103" xr:uid="{5A91046B-C11D-4378-A1D5-757FC4990677}"/>
-    <hyperlink ref="H53" r:id="rId104" xr:uid="{156998E6-5EA5-44E5-A7B3-4DC5349DE3A2}"/>
-    <hyperlink ref="H54" r:id="rId105" xr:uid="{774DF42C-C7F6-45A9-B8A3-CAC288D9A8F3}"/>
-    <hyperlink ref="H17" r:id="rId106" xr:uid="{73F75A5B-45B6-4362-B72E-BFE46E6FD00B}"/>
-    <hyperlink ref="H20" r:id="rId107" xr:uid="{3005BAF8-13D5-45EF-99F1-E7F18BA83F09}"/>
-    <hyperlink ref="H35" r:id="rId108" xr:uid="{C7B34DA6-516D-4E52-9058-B4ECE30B70DD}"/>
-    <hyperlink ref="H36" r:id="rId109" xr:uid="{87540BE4-3D29-45F0-B9E0-052DDCCA467D}"/>
-    <hyperlink ref="H37" r:id="rId110" xr:uid="{1CED9159-C2D3-4B5C-AFCA-EC78DF96FC5E}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{E6A28BA7-3EB2-4017-A155-22D97C11E776}"/>
+    <hyperlink ref="H14" r:id="rId7" xr:uid="{D93FB45A-7B25-480C-B2F1-D11B42E295CB}"/>
+    <hyperlink ref="H19" r:id="rId8" xr:uid="{7010399F-C9A8-47D9-8454-A1EACAF50E28}"/>
+    <hyperlink ref="H20" r:id="rId9" xr:uid="{6DEBA247-016B-4E85-AFF7-48DE8350F99E}"/>
+    <hyperlink ref="H21" r:id="rId10" xr:uid="{D99A60D2-9A95-4DEB-9C06-74A21B63270E}"/>
+    <hyperlink ref="H23" r:id="rId11" xr:uid="{361B67EE-0C93-4096-87E0-30865EE84AAE}"/>
+    <hyperlink ref="H24" r:id="rId12" xr:uid="{8D6281C4-D5A4-4DAC-AA7B-6E7206C14F70}"/>
+    <hyperlink ref="H35" r:id="rId13" xr:uid="{27C88EA8-1370-48D4-8302-6DE68610591B}"/>
+    <hyperlink ref="H36" r:id="rId14" xr:uid="{A88FBB92-61E6-4C47-8CB5-4F06A45190B3}"/>
+    <hyperlink ref="H37" r:id="rId15" xr:uid="{8F1FAF4C-93BD-4C36-84CC-348CB8ABDD26}"/>
+    <hyperlink ref="H38" r:id="rId16" xr:uid="{85784056-B425-4B8F-906D-4EDF2C066105}"/>
+    <hyperlink ref="H39" r:id="rId17" xr:uid="{B4071C32-B9A1-43F8-8F4B-5D149523D148}"/>
+    <hyperlink ref="H41" r:id="rId18" xr:uid="{BB4B6C4C-8600-4208-9167-A5DF0E6CA280}"/>
+    <hyperlink ref="H42" r:id="rId19" xr:uid="{82E0B9C2-776F-4024-9F47-0D275FBF9A8E}"/>
+    <hyperlink ref="H43" r:id="rId20" xr:uid="{D3B04703-845C-41AD-B1C8-26775B911058}"/>
+    <hyperlink ref="H50" r:id="rId21" xr:uid="{A9FB737F-7E9F-447D-B09B-DA4C58C66204}"/>
+    <hyperlink ref="H53" r:id="rId22" xr:uid="{887A7972-6D35-46DC-9C06-CCC8250EC43F}"/>
+    <hyperlink ref="H51" r:id="rId23" xr:uid="{5A09ADB0-F08A-4609-87DE-786FCA31E493}"/>
+    <hyperlink ref="H52" r:id="rId24" xr:uid="{571B95A7-4FFC-4966-9B5C-FD99C13F51EA}"/>
+    <hyperlink ref="H54" r:id="rId25" xr:uid="{FCB9ADB7-2CA7-4FCE-8E7E-DEC9CF2BA222}"/>
+    <hyperlink ref="H56" r:id="rId26" xr:uid="{8A7988FE-9A8C-4412-9EA2-FA9C2448DD52}"/>
+    <hyperlink ref="H57" r:id="rId27" xr:uid="{140048C0-36FA-4F5F-8C86-5359A352CAAA}"/>
+    <hyperlink ref="H11" r:id="rId28" xr:uid="{54B623BC-DB92-4E8C-881B-D09C461517F4}"/>
+    <hyperlink ref="H9" r:id="rId29" xr:uid="{1336EED8-0577-4106-A205-CEBD23169959}"/>
+    <hyperlink ref="H58" r:id="rId30" xr:uid="{5AE8628B-A6AC-4465-BD4E-F82D7A992971}"/>
+    <hyperlink ref="H61" r:id="rId31" xr:uid="{5CF7566F-CBE0-4F25-9013-93E6C3867D34}"/>
+    <hyperlink ref="H86" r:id="rId32" xr:uid="{1C353C88-9EE8-4F55-ABF4-3CDB7B4E6AFA}"/>
+    <hyperlink ref="H68" r:id="rId33" xr:uid="{A4884050-FCBA-4619-993B-8E09E8C3C70B}"/>
+    <hyperlink ref="H70" r:id="rId34" xr:uid="{58D76656-D3D8-42D0-BC20-8510076538AB}"/>
+    <hyperlink ref="H73" r:id="rId35" xr:uid="{C0E7B505-5AEC-4726-BC3C-849B7BDA23D9}"/>
+    <hyperlink ref="H59" r:id="rId36" xr:uid="{8C7DE950-390F-4072-944E-544CAC30E1E2}"/>
+    <hyperlink ref="H62" r:id="rId37" xr:uid="{B704CBA7-EC39-4C16-9B7C-5A1F23168BB8}"/>
+    <hyperlink ref="H66" r:id="rId38" xr:uid="{77992806-B822-4851-8E7E-B16BCD52945D}"/>
+    <hyperlink ref="H69" r:id="rId39" xr:uid="{70DB7A6C-EE09-443B-AD3C-19A4D772B8A8}"/>
+    <hyperlink ref="H64" r:id="rId40" xr:uid="{D424DDC5-5012-4B92-A954-F4FB9A628B30}"/>
+    <hyperlink ref="H74" r:id="rId41" xr:uid="{0B10C842-555F-4DE2-9434-D8A68A89D8EB}"/>
+    <hyperlink ref="H60" r:id="rId42" xr:uid="{C77D7737-0D5E-4663-A3E3-874018F1FFE3}"/>
+    <hyperlink ref="H63" r:id="rId43" xr:uid="{F1705702-B968-4193-861D-2AB08339CEE2}"/>
+    <hyperlink ref="H67" r:id="rId44" xr:uid="{D1806A47-31AD-4D52-9D39-FCC2CFADBCA7}"/>
+    <hyperlink ref="H72" r:id="rId45" xr:uid="{6D5ED102-4BF2-4DF0-9937-E6866027A220}"/>
+    <hyperlink ref="H75" r:id="rId46" xr:uid="{772C27DA-BD2C-4F9A-A4D3-5C6979B2A4F9}"/>
+    <hyperlink ref="H77" r:id="rId47" xr:uid="{EE876AD6-690E-4842-9C9C-46D511C113AC}"/>
+    <hyperlink ref="H80" r:id="rId48" xr:uid="{EDBE8CFB-1752-473F-8585-E99FE96B416C}"/>
+    <hyperlink ref="H83" r:id="rId49" xr:uid="{730ADE1D-7AB1-4045-9605-7178FD603068}"/>
+    <hyperlink ref="H89" r:id="rId50" xr:uid="{8C1B7032-C130-4830-8768-7433E109FA02}"/>
+    <hyperlink ref="H78" r:id="rId51" xr:uid="{FC41B6AC-5E57-43F7-9402-1C9117121189}"/>
+    <hyperlink ref="H81" r:id="rId52" xr:uid="{9E952813-F017-47F5-9544-C1D5E758C359}"/>
+    <hyperlink ref="H84" r:id="rId53" xr:uid="{AD155B72-4E79-4429-A06A-2C4B16FFF33D}"/>
+    <hyperlink ref="H87" r:id="rId54" xr:uid="{F6456D77-05F5-4173-B6CA-70260CBB0A58}"/>
+    <hyperlink ref="H90" r:id="rId55" xr:uid="{48433DED-C1F8-4D6C-B214-3A279505B2D6}"/>
+    <hyperlink ref="H76" r:id="rId56" xr:uid="{6B52B382-D1D4-4DFB-B626-874F8F7EDF18}"/>
+    <hyperlink ref="H79" r:id="rId57" xr:uid="{D24AAA7A-A72E-4097-BD9D-A877399EE09E}"/>
+    <hyperlink ref="H82" r:id="rId58" xr:uid="{B5167D5B-4C9D-46DE-A07F-27373B9B2DE4}"/>
+    <hyperlink ref="H85" r:id="rId59" xr:uid="{0C5F9D97-8070-4C07-8BB3-8B4B505E347B}"/>
+    <hyperlink ref="H88" r:id="rId60" xr:uid="{9EBA3E94-3443-46E5-8FAE-260C4505C2E0}"/>
+    <hyperlink ref="H91" r:id="rId61" xr:uid="{14F7D100-BBD2-468A-8F3F-D75D96FC7685}"/>
+    <hyperlink ref="H71" r:id="rId62" xr:uid="{2083F290-F1F6-478A-8B25-82B485B2F3C9}"/>
+    <hyperlink ref="H65" r:id="rId63" xr:uid="{D94A52F2-BAB9-460F-BBEA-98F02A7FDA35}"/>
+    <hyperlink ref="H18" r:id="rId64" xr:uid="{356A992B-7C92-430E-BC27-C451BB111F05}"/>
+    <hyperlink ref="H10" r:id="rId65" xr:uid="{B1663DD2-D1A3-494E-BB22-F085B519E4E7}"/>
+    <hyperlink ref="H13" r:id="rId66" xr:uid="{EECAB09E-B6D1-4B40-A043-FB12E69D4217}"/>
+    <hyperlink ref="H16" r:id="rId67" xr:uid="{5124A3CA-466F-4B8B-BC8A-0E61FD25AD79}"/>
+    <hyperlink ref="H26" r:id="rId68" xr:uid="{A9B7712E-C0ED-4D7B-BC92-9BBE06E6DA34}"/>
+    <hyperlink ref="H27" r:id="rId69" xr:uid="{1CD5C499-E803-406F-8C0F-7D32FE055F9D}"/>
+    <hyperlink ref="H28" r:id="rId70" xr:uid="{861F959A-BB4E-49F0-9883-3F7D3A65C972}"/>
+    <hyperlink ref="H29" r:id="rId71" xr:uid="{B00D18A3-39BF-4A4C-BE3B-C1D2830C1E48}"/>
+    <hyperlink ref="H33" r:id="rId72" xr:uid="{74FE14DD-CBA5-4C95-BC88-BBF2012B3C5F}"/>
+    <hyperlink ref="H25" r:id="rId73" xr:uid="{9B0B094A-37C5-4822-90D8-9D93F902484F}"/>
+    <hyperlink ref="H55" r:id="rId74" xr:uid="{35903F7D-00A7-43CD-8F44-E9000683A9A3}"/>
+    <hyperlink ref="H34" r:id="rId75" xr:uid="{67189A5A-22B6-42C9-AA91-8FA46DC05B1B}"/>
+    <hyperlink ref="H40" r:id="rId76" xr:uid="{F02C8D74-71A0-4E52-A4CC-A4C959B933D0}"/>
+    <hyperlink ref="H94" r:id="rId77" xr:uid="{7ABFE093-A499-460B-8A3A-747B903CC0D8}"/>
+    <hyperlink ref="H97" r:id="rId78" xr:uid="{2B763DFA-8E55-4423-94F6-F97B6347E7BA}"/>
+    <hyperlink ref="H92" r:id="rId79" xr:uid="{6780C0A0-5A66-4E8D-AF30-69EA7BFFD49D}"/>
+    <hyperlink ref="H95" r:id="rId80" xr:uid="{DB91D74C-E4FC-436A-AEF8-93FBD178CBBE}"/>
+    <hyperlink ref="H98" r:id="rId81" xr:uid="{B7219162-37EA-4A3E-B4C7-3F521EBFD599}"/>
+    <hyperlink ref="H93" r:id="rId82" xr:uid="{CE50F847-61E3-4A9F-8A44-97EECA535CE9}"/>
+    <hyperlink ref="H96" r:id="rId83" xr:uid="{D03A9A92-D0F9-4AFC-9B83-5CC2D1783E1B}"/>
+    <hyperlink ref="H99" r:id="rId84" xr:uid="{A8395A87-E3FD-4CE6-AFB3-200935279EA6}"/>
+    <hyperlink ref="H102" r:id="rId85" xr:uid="{013730CB-39A8-4695-9BF8-C407D6F34505}"/>
+    <hyperlink ref="H100" r:id="rId86" xr:uid="{27CF8E39-5B7F-4666-918E-5055CEFD74BC}"/>
+    <hyperlink ref="H103" r:id="rId87" xr:uid="{EDB2E061-0439-4233-8D8F-01AA45D54C99}"/>
+    <hyperlink ref="H101" r:id="rId88" xr:uid="{02CBD326-C1AD-4AAC-97A3-A39AC2978547}"/>
+    <hyperlink ref="H104" r:id="rId89" xr:uid="{6F247405-8D2E-4DC1-939B-8BF6AACD2BF1}"/>
+    <hyperlink ref="H107" r:id="rId90" xr:uid="{D0E30AF2-28B4-409A-8AAB-442272946FD0}"/>
+    <hyperlink ref="H105" r:id="rId91" xr:uid="{32D50C06-9C81-414D-B5C1-43F98F5AAEBC}"/>
+    <hyperlink ref="H106" r:id="rId92" xr:uid="{9B663D42-A486-4D62-8F2A-96A28A5757C7}"/>
+    <hyperlink ref="H6" r:id="rId93" xr:uid="{A4F101D3-BF5A-4795-A827-98C9ACD6D091}"/>
+    <hyperlink ref="H22" r:id="rId94" xr:uid="{79FB6451-2479-47C4-A438-3105DA92B082}"/>
+    <hyperlink ref="H44" r:id="rId95" xr:uid="{3CD53464-4392-44A1-A246-A2BC21D8DAD5}"/>
+    <hyperlink ref="H45" r:id="rId96" xr:uid="{EE667E24-A06D-4A51-A99E-A04B8374DE3A}"/>
+    <hyperlink ref="H46" r:id="rId97" xr:uid="{BC9F746E-B48C-4316-86A7-7DF5C7073E7E}"/>
+    <hyperlink ref="H47" r:id="rId98" xr:uid="{5A91046B-C11D-4378-A1D5-757FC4990677}"/>
+    <hyperlink ref="H48" r:id="rId99" xr:uid="{156998E6-5EA5-44E5-A7B3-4DC5349DE3A2}"/>
+    <hyperlink ref="H49" r:id="rId100" xr:uid="{774DF42C-C7F6-45A9-B8A3-CAC288D9A8F3}"/>
+    <hyperlink ref="H12" r:id="rId101" xr:uid="{73F75A5B-45B6-4362-B72E-BFE46E6FD00B}"/>
+    <hyperlink ref="H15" r:id="rId102" xr:uid="{3005BAF8-13D5-45EF-99F1-E7F18BA83F09}"/>
+    <hyperlink ref="H30" r:id="rId103" xr:uid="{C7B34DA6-516D-4E52-9058-B4ECE30B70DD}"/>
+    <hyperlink ref="H31" r:id="rId104" xr:uid="{87540BE4-3D29-45F0-B9E0-052DDCCA467D}"/>
+    <hyperlink ref="H32" r:id="rId105" xr:uid="{1CED9159-C2D3-4B5C-AFCA-EC78DF96FC5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId111"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
 
@@ -5621,7 +5476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6EDC4E-4736-442F-84EB-BCEB962219DE}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -5682,10 +5537,10 @@
         <v>1971</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5707,10 +5562,10 @@
         <v>1943</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5718,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -5732,10 +5587,10 @@
         <v>1963</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5757,10 +5612,10 @@
         <v>1962</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5782,10 +5637,10 @@
         <v>1969</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5807,20 +5662,20 @@
         <v>2015</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>13</v>
@@ -5834,10 +5689,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5845,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>13</v>
@@ -5859,10 +5714,10 @@
         <v>2016</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5870,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>13</v>
@@ -5884,10 +5739,10 @@
         <v>2000</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5909,10 +5764,10 @@
         <v>2007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -5934,10 +5789,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5945,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>13</v>
@@ -5959,10 +5814,10 @@
         <v>2005</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -5984,10 +5839,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -5995,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>13</v>
@@ -6009,10 +5864,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6020,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>13</v>
@@ -6034,10 +5889,10 @@
         <v>2012</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -6059,10 +5914,10 @@
         <v>2013</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -6084,10 +5939,10 @@
         <v>2012</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -6109,10 +5964,10 @@
         <v>2000</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -6134,16 +5989,16 @@
         <v>2010</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -6163,10 +6018,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6188,10 +6043,10 @@
         <v>2007</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -6213,10 +6068,10 @@
         <v>2008</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -6238,13 +6093,13 @@
         <v>2000</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5">
@@ -6269,7 +6124,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F8 F11:F12 F14:F18 F20:F22">
-    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6286,7 +6141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6303,7 +6158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6320,7 +6175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6337,7 +6192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6354,7 +6209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6371,7 +6226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6388,7 +6243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6405,7 +6260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6422,7 +6277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6533,10 +6388,10 @@
         <v>1977</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -6558,10 +6413,10 @@
         <v>2010</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6583,10 +6438,10 @@
         <v>1982</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6608,10 +6463,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -6633,10 +6488,10 @@
         <v>2003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6658,10 +6513,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6683,10 +6538,10 @@
         <v>2004</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6708,10 +6563,10 @@
         <v>2005</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6733,10 +6588,10 @@
         <v>1992</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6758,10 +6613,10 @@
         <v>1993</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6787,7 +6642,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F5:F9 F11:F12">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6804,7 +6659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6821,7 +6676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6919,20 +6774,20 @@
         <v>2003</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>13</v>
@@ -6946,20 +6801,20 @@
         <v>2003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -6973,20 +6828,20 @@
         <v>2003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>13</v>
@@ -7000,20 +6855,20 @@
         <v>2003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>13</v>
@@ -7027,20 +6882,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>13</v>
@@ -7054,10 +6909,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7065,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>13</v>
@@ -7079,10 +6934,10 @@
         <v>2002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7090,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>13</v>
@@ -7104,10 +6959,10 @@
         <v>2003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -7115,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>13</v>
@@ -7129,10 +6984,10 @@
         <v>2003</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7140,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>13</v>
@@ -7154,10 +7009,10 @@
         <v>2003</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -7165,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>13</v>
@@ -7179,10 +7034,10 @@
         <v>2003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7190,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>13</v>
@@ -7204,10 +7059,10 @@
         <v>2001</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -7215,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>13</v>
@@ -7229,10 +7084,10 @@
         <v>2003</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -7240,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>13</v>
@@ -7254,10 +7109,10 @@
         <v>2009</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7265,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>13</v>
@@ -7279,10 +7134,10 @@
         <v>2010</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7304,10 +7159,10 @@
         <v>2008</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -7329,10 +7184,10 @@
         <v>2009</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -7354,13 +7209,13 @@
         <v>2005</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5">
@@ -7381,10 +7236,10 @@
         <v>2006</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7410,7 +7265,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7427,7 +7282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="52" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7444,7 +7299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7461,7 +7316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7478,7 +7333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7495,7 +7350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7512,7 +7367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7529,7 +7384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7546,7 +7401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7563,7 +7418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7580,7 +7435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7597,7 +7452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7614,7 +7469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7631,7 +7486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7648,7 +7503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7665,7 +7520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7682,7 +7537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7699,7 +7554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7716,7 +7571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7823,10 +7678,10 @@
         <v>1998</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -7848,10 +7703,10 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -7873,10 +7728,10 @@
         <v>1997</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -7898,10 +7753,10 @@
         <v>1998</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7923,10 +7778,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7948,10 +7803,10 @@
         <v>2013</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7973,10 +7828,10 @@
         <v>1993</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7998,10 +7853,10 @@
         <v>1998</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -8023,10 +7878,10 @@
         <v>2013</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -8034,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>13</v>
@@ -8048,10 +7903,10 @@
         <v>1993</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -8073,10 +7928,10 @@
         <v>2005</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -8098,10 +7953,10 @@
         <v>2006</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -8123,10 +7978,10 @@
         <v>2006</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -8148,10 +8003,10 @@
         <v>2007</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -8173,10 +8028,10 @@
         <v>1976</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -8198,10 +8053,10 @@
         <v>2001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -8223,10 +8078,10 @@
         <v>2004</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -8248,10 +8103,10 @@
         <v>2009</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -8259,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>13</v>
@@ -8273,10 +8128,10 @@
         <v>1997</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -8298,10 +8153,10 @@
         <v>1985</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -8309,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>13</v>
@@ -8323,10 +8178,10 @@
         <v>2005</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -8334,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>13</v>
@@ -8348,10 +8203,10 @@
         <v>1982</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -8373,10 +8228,10 @@
         <v>1986</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -8384,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>13</v>
@@ -8398,10 +8253,10 @@
         <v>2001</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -8423,10 +8278,10 @@
         <v>2011</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -8434,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>13</v>
@@ -8448,10 +8303,10 @@
         <v>2012</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -8473,10 +8328,10 @@
         <v>1997</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -8498,10 +8353,10 @@
         <v>2013</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -8523,13 +8378,13 @@
         <v>1917</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="16">
@@ -8550,10 +8405,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -8575,10 +8430,10 @@
         <v>1968</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -8600,13 +8455,13 @@
         <v>2019</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5">
@@ -8627,10 +8482,10 @@
         <v>1999</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -8652,10 +8507,10 @@
         <v>1991</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -8677,10 +8532,10 @@
         <v>2010</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -8702,10 +8557,10 @@
         <v>2007</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -8727,10 +8582,10 @@
         <v>1997</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -8752,10 +8607,10 @@
         <v>2000</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -8777,10 +8632,10 @@
         <v>2002</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -8802,10 +8657,10 @@
         <v>1990</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -8827,10 +8682,10 @@
         <v>2002</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -8852,10 +8707,10 @@
         <v>2014</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -8877,10 +8732,10 @@
         <v>1988</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -8902,10 +8757,10 @@
         <v>2001</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -8927,10 +8782,10 @@
         <v>2006</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -8952,10 +8807,10 @@
         <v>2009</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -8977,10 +8832,10 @@
         <v>2012</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -9002,16 +8857,16 @@
         <v>1996</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -9031,10 +8886,10 @@
         <v>2001</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -9056,10 +8911,10 @@
         <v>2003</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -9081,10 +8936,10 @@
         <v>2004</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -9106,10 +8961,10 @@
         <v>2006</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -9131,10 +8986,10 @@
         <v>1997</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -9156,10 +9011,10 @@
         <v>1993</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -9181,10 +9036,10 @@
         <v>1998</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -9206,10 +9061,10 @@
         <v>1997</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -9231,13 +9086,13 @@
         <v>1993</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="5">
@@ -9258,20 +9113,20 @@
         <v>1992</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>13</v>
@@ -9285,10 +9140,10 @@
         <v>1995</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -9310,10 +9165,10 @@
         <v>2007</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -9335,10 +9190,10 @@
         <v>2004</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -9346,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>13</v>
@@ -9360,10 +9215,10 @@
         <v>1997</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -9385,10 +9240,10 @@
         <v>2010</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -9396,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>13</v>
@@ -9410,10 +9265,10 @@
         <v>1970</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -9435,10 +9290,10 @@
         <v>1970</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -9460,13 +9315,13 @@
         <v>2003</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5">
@@ -9487,10 +9342,10 @@
         <v>1981</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -9498,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>13</v>
@@ -9517,7 +9372,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="34" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9534,7 +9389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35 F46 F58">
-    <cfRule type="containsText" dxfId="33" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9551,7 +9406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="32" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9568,11 +9423,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F32 F44 F55 F67">
-    <cfRule type="containsText" dxfId="31" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F20 F44 F55 F67">
+  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9585,7 +9440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F25 F37 F48 F60">
-    <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9602,7 +9457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16 F40 F51 F63">
-    <cfRule type="containsText" dxfId="29" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9619,7 +9474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9636,11 +9491,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 F27 F39 F50 F62">
-    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27 F15 F39 F50 F62">
+  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9653,11 +9508,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29 F52 F64">
-    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F52 F64">
+  <conditionalFormatting sqref="F52 F29 F64">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9670,7 +9525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42 F65">
-    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9687,7 +9542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9704,7 +9559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9721,11 +9576,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26 F49 F61">
-    <cfRule type="containsText" dxfId="22" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F49 F61">
+  <conditionalFormatting sqref="F49 F26 F61">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9738,7 +9593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9755,7 +9610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 F31 F43 F54 F66">
-    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9772,7 +9627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F36 F59">
-    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9789,11 +9644,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F34 F47 F57 F69">
-    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F22 F47 F57 F69">
+  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9806,7 +9661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 F45 F56 F68">
-    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9823,7 +9678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9840,7 +9695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9857,7 +9712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="14" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9874,7 +9729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9891,7 +9746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9908,7 +9763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="11" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9925,7 +9780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9942,7 +9797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9959,7 +9814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9976,7 +9831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="7" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9993,7 +9848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10010,7 +9865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10027,7 +9882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="4" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10044,7 +9899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="3" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10197,8 +10052,8 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5">
-        <f>SUM(Europe!I3:I112)+SUM(America!I3:I25)+SUM(Africa!I3:I12)+SUM('Australia and Oceania'!I3:I21)+SUM(Asia!I3:I69)-100</f>
-        <v>131.18000000000004</v>
+        <f>SUM(Europe!I3:I107)+SUM(America!I3:I25)+SUM(Africa!I3:I12)+SUM('Australia and Oceania'!I3:I21)+SUM(Asia!I3:I69)-100</f>
+        <v>130.15000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">

--- a/Collections/Foreign_various/Foreighn_originals.xlsx
+++ b/Collections/Foreign_various/Foreighn_originals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Foreign_various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C48F16-FC4C-49F7-9DFC-88FFB2E6D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B284846C-5212-4F67-9283-E57F3802D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,13 @@
     <sheet name="Asia" sheetId="18" r:id="rId5"/>
     <sheet name="Links" sheetId="13" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Africa!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">America!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Asia!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Australia and Oceania'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Europe!$A$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -72,12 +79,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -99,9 +100,6 @@
     <t xml:space="preserve">Kruse catalog. Middle convenience single table with all coins, varieties. </t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -838,6 +836,15 @@
   </si>
   <si>
     <t>25 fils</t>
+  </si>
+  <si>
+    <t>Subtype_1#Value</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_distinctions_2</t>
   </si>
 </sst>
 </file>
@@ -895,6 +902,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -943,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1034,13 +1043,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1088,21 +1108,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1123,6 +1154,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="98">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1860,15 +1900,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
@@ -1919,9 +1950,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2192,71 +2223,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="10" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
     <col min="11" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>23</v>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2007</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2264,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
         <v>0.16</v>
@@ -2278,10 +2313,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2289,10 +2324,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4">
         <v>0.11</v>
@@ -2303,10 +2338,10 @@
         <v>2015</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2314,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
         <v>0.21</v>
@@ -2328,10 +2363,10 @@
         <v>1966</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2339,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
         <v>0.23</v>
@@ -2353,10 +2388,10 @@
         <v>2005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2364,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
         <v>0.22</v>
@@ -2378,10 +2413,10 @@
         <v>2005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2389,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
         <v>0.22</v>
@@ -2403,10 +2438,10 @@
         <v>1987</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2414,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4">
         <v>0.08</v>
@@ -2428,10 +2463,10 @@
         <v>1981</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2439,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4">
         <v>0.37</v>
@@ -2453,10 +2488,10 @@
         <v>2004</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2464,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>0.31</v>
@@ -2478,10 +2513,10 @@
         <v>1982</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2489,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4">
         <v>1.1200000000000001</v>
@@ -2503,10 +2538,10 @@
         <v>1986</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2514,10 +2549,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4">
         <v>0.11</v>
@@ -2528,10 +2563,10 @@
         <v>1991</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2539,10 +2574,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4">
         <v>0.14000000000000001</v>
@@ -2553,10 +2588,10 @@
         <v>1972</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2564,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4">
         <v>0.3</v>
@@ -2578,10 +2613,10 @@
         <v>1995</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2589,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4">
         <v>1.21</v>
@@ -2603,10 +2638,10 @@
         <v>1995</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2614,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4">
         <v>0.56000000000000005</v>
@@ -2628,10 +2663,10 @@
         <v>1966</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2639,10 +2674,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4">
         <v>0.12</v>
@@ -2653,10 +2688,10 @@
         <v>1985</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2664,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4">
         <v>0.27</v>
@@ -2678,10 +2713,10 @@
         <v>2008</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2689,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4">
         <v>0.22</v>
@@ -2703,10 +2738,10 @@
         <v>2007</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2714,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4">
         <v>0.31</v>
@@ -2728,10 +2763,10 @@
         <v>1999</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2739,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4">
         <v>3.17</v>
@@ -2753,10 +2788,10 @@
         <v>1973</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2764,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4">
         <v>0.11</v>
@@ -2778,10 +2813,10 @@
         <v>1985</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2789,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I24" s="4">
         <v>0.09</v>
@@ -2803,10 +2838,10 @@
         <v>1963</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2814,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I25" s="4">
         <v>0.38</v>
@@ -2828,10 +2863,10 @@
         <v>2013</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2839,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I26" s="4">
         <v>0.31</v>
@@ -2853,10 +2888,10 @@
         <v>1993</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2864,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I27" s="4">
         <v>0.15</v>
@@ -2878,10 +2913,10 @@
         <v>1996</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2889,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I28" s="4">
         <v>0.11</v>
@@ -2903,10 +2938,10 @@
         <v>1995</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2914,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4">
         <v>0.21</v>
@@ -2928,10 +2963,10 @@
         <v>1995</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2939,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I30" s="4">
         <v>0.38</v>
@@ -2953,10 +2988,10 @@
         <v>1994</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2964,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I31" s="4">
         <v>0.59</v>
@@ -2978,10 +3013,10 @@
         <v>2010</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2989,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4">
         <v>1.04</v>
@@ -3003,10 +3038,10 @@
         <v>2005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3014,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I33" s="4">
         <v>0.32</v>
@@ -3028,10 +3063,10 @@
         <v>2000</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3039,10 +3074,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I34" s="4">
         <v>0.09</v>
@@ -3053,10 +3088,10 @@
         <v>1969</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3064,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4">
         <v>0.09</v>
@@ -3078,23 +3113,23 @@
         <v>1973</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I36" s="4">
         <v>0.15</v>
@@ -3105,10 +3140,10 @@
         <v>1997</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3116,10 +3151,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I37" s="4">
         <v>0.1</v>
@@ -3130,10 +3165,10 @@
         <v>1923</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3141,10 +3176,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I38" s="4">
         <v>0.5</v>
@@ -3155,10 +3190,10 @@
         <v>1991</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3166,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I39" s="4">
         <v>0.18</v>
@@ -3180,10 +3215,10 @@
         <v>1985</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3191,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I40" s="4">
         <v>0.16</v>
@@ -3205,10 +3240,10 @@
         <v>1998</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3216,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4">
         <v>0.13</v>
@@ -3230,10 +3265,10 @@
         <v>1998</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3241,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4">
         <v>0.16</v>
@@ -3255,10 +3290,10 @@
         <v>1994</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3266,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I43" s="4">
         <v>0.09</v>
@@ -3280,10 +3315,10 @@
         <v>1993</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3291,10 +3326,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I44" s="4">
         <v>0.16</v>
@@ -3305,10 +3340,10 @@
         <v>2003</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3316,10 +3351,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I45" s="4">
         <v>0.22</v>
@@ -3330,10 +3365,10 @@
         <v>1993</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3341,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I46" s="4">
         <v>0.27</v>
@@ -3355,10 +3390,10 @@
         <v>2003</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3366,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I47" s="4">
         <v>0.47</v>
@@ -3380,10 +3415,10 @@
         <v>1998</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3391,10 +3426,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I48" s="4">
         <v>0.95</v>
@@ -3405,10 +3440,10 @@
         <v>2009</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3416,10 +3451,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I49" s="4">
         <v>2.36</v>
@@ -3430,10 +3465,10 @@
         <v>1920</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3441,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I50" s="4">
         <v>4.1100000000000003</v>
@@ -3455,10 +3490,10 @@
         <v>1995</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3466,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I51" s="4">
         <v>0.14000000000000001</v>
@@ -3480,10 +3515,10 @@
         <v>1979</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3491,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I52" s="4">
         <v>0.16</v>
@@ -3505,10 +3540,10 @@
         <v>1972</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3516,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I53" s="4">
         <v>0.26</v>
@@ -3530,10 +3565,10 @@
         <v>1967</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3541,10 +3576,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I54" s="4">
         <v>0.13</v>
@@ -3555,10 +3590,10 @@
         <v>2000</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3566,10 +3601,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I55" s="4">
         <v>0.11</v>
@@ -3580,10 +3615,10 @@
         <v>1974</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3591,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I56" s="4">
         <v>0.1</v>
@@ -3605,10 +3640,10 @@
         <v>1999</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3616,10 +3651,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I57" s="4">
         <v>0.2</v>
@@ -3630,10 +3665,10 @@
         <v>1999</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3641,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I58" s="4">
         <v>0.14000000000000001</v>
@@ -3655,10 +3690,10 @@
         <v>1999</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -3666,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I59" s="4">
         <v>0.21</v>
@@ -3680,10 +3715,10 @@
         <v>1999</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3691,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I60" s="4">
         <v>0.28000000000000003</v>
@@ -3705,10 +3740,10 @@
         <v>1995</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3716,10 +3751,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I61" s="4">
         <v>0.53</v>
@@ -3730,10 +3765,10 @@
         <v>2003</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3741,10 +3776,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I62" s="4">
         <v>0.42</v>
@@ -3755,10 +3790,10 @@
         <v>2001</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3766,10 +3801,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I63" s="4">
         <v>1.48</v>
@@ -3780,10 +3815,10 @@
         <v>2002</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3791,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" s="4">
         <v>0.17</v>
@@ -3805,10 +3840,10 @@
         <v>2004</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3816,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I65" s="4">
         <v>0.28999999999999998</v>
@@ -3830,10 +3865,10 @@
         <v>2007</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3841,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I66" s="4">
         <v>0.19</v>
@@ -3855,10 +3890,10 @@
         <v>2009</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3866,10 +3901,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I67" s="4">
         <v>0.13</v>
@@ -3880,10 +3915,10 @@
         <v>2005</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3891,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I68" s="4">
         <v>0.14000000000000001</v>
@@ -3905,10 +3940,10 @@
         <v>2009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3916,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I69" s="4">
         <v>0.16</v>
@@ -3930,10 +3965,10 @@
         <v>2009</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3941,10 +3976,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I70" s="4">
         <v>0.19</v>
@@ -3955,10 +3990,10 @@
         <v>2005</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3966,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I71" s="4">
         <v>0.18</v>
@@ -3980,10 +4015,10 @@
         <v>2009</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3991,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I72" s="4">
         <v>0.39</v>
@@ -4005,10 +4040,10 @@
         <v>1986</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -4016,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I73" s="4">
         <v>0.15</v>
@@ -4030,10 +4065,10 @@
         <v>2004</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -4041,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I74" s="4">
         <v>0.28000000000000003</v>
@@ -4055,10 +4090,10 @@
         <v>1991</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4066,10 +4101,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I75" s="4">
         <v>0.38</v>
@@ -4080,10 +4115,10 @@
         <v>1991</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4091,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I76" s="4">
         <v>0.09</v>
@@ -4105,10 +4140,10 @@
         <v>1997</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4116,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I77" s="4">
         <v>0.14000000000000001</v>
@@ -4130,10 +4165,10 @@
         <v>2013</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4141,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I78" s="4">
         <v>0.59</v>
@@ -4155,10 +4190,10 @@
         <v>1998</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4166,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I79" s="4">
         <v>0.25</v>
@@ -4180,10 +4215,10 @@
         <v>2007</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4191,10 +4226,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I80" s="4">
         <v>0.33</v>
@@ -4205,10 +4240,10 @@
         <v>2009</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4216,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I81" s="4">
         <v>0.34</v>
@@ -4230,10 +4265,10 @@
         <v>1998</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -4241,10 +4276,10 @@
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I82" s="4">
         <v>0.88</v>
@@ -4255,10 +4290,10 @@
         <v>2008</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4266,10 +4301,10 @@
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I83" s="4">
         <v>0.85</v>
@@ -4280,10 +4315,10 @@
         <v>1978</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4291,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I84" s="4">
         <v>0.22</v>
@@ -4305,10 +4340,10 @@
         <v>1978</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4316,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I85" s="4">
         <v>0.12</v>
@@ -4330,10 +4365,10 @@
         <v>1967</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4341,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I86" s="4">
         <v>0.24</v>
@@ -4355,10 +4390,10 @@
         <v>1987</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4366,10 +4401,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I87" s="4">
         <v>0.17</v>
@@ -4380,10 +4415,10 @@
         <v>1980</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4391,10 +4426,10 @@
         <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I88" s="4">
         <v>0.24</v>
@@ -4405,10 +4440,10 @@
         <v>1985</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4416,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I89" s="4">
         <v>0.16</v>
@@ -4430,10 +4465,10 @@
         <v>1989</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4441,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I90" s="4">
         <v>0.28000000000000003</v>
@@ -4455,10 +4490,10 @@
         <v>1980</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4466,10 +4501,10 @@
         <v>1</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I91" s="4">
         <v>0.23</v>
@@ -4480,10 +4515,10 @@
         <v>1993</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4491,10 +4526,10 @@
         <v>1</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I92" s="4">
         <v>0.11</v>
@@ -4505,10 +4540,10 @@
         <v>1993</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4516,10 +4551,10 @@
         <v>1</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I93" s="4">
         <v>0.16</v>
@@ -4530,10 +4565,10 @@
         <v>1993</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4541,10 +4576,10 @@
         <v>1</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I94" s="4">
         <v>0.22</v>
@@ -4555,10 +4590,10 @@
         <v>1993</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4566,10 +4601,10 @@
         <v>1</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I95" s="4">
         <v>0.14000000000000001</v>
@@ -4580,10 +4615,10 @@
         <v>1994</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -4591,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I96" s="4">
         <v>0.25</v>
@@ -4605,10 +4640,10 @@
         <v>1993</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -4616,10 +4651,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I97" s="4">
         <v>0.25</v>
@@ -4630,10 +4665,10 @@
         <v>1993</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -4641,10 +4676,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I98" s="4">
         <v>0.44</v>
@@ -4655,10 +4690,10 @@
         <v>1992</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4666,10 +4701,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I99" s="4">
         <v>0.32</v>
@@ -4680,10 +4715,10 @@
         <v>1990</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4691,10 +4726,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I100" s="4">
         <v>0.89</v>
@@ -4705,10 +4740,10 @@
         <v>1996</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4716,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I101" s="4">
         <v>3.11</v>
@@ -4730,10 +4765,10 @@
         <v>2004</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4741,10 +4776,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I102" s="4">
         <v>0.24</v>
@@ -4755,10 +4790,10 @@
         <v>2000</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4766,10 +4801,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I103" s="4">
         <v>0.34</v>
@@ -4780,10 +4815,10 @@
         <v>2014</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -4791,10 +4826,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I104" s="4">
         <v>0.23</v>
@@ -4805,10 +4840,10 @@
         <v>2014</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -4816,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I105" s="4">
         <v>0.39</v>
@@ -4830,10 +4865,10 @@
         <v>2013</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4841,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I106" s="4">
         <v>0.53</v>
@@ -4855,10 +4890,10 @@
         <v>2003</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4866,26 +4901,25 @@
         <v>1</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I107" s="4">
         <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="A2:G2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="3">
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3 F73:F75 F5 F11:F12 F14:F21 F86 F63:F70 F23:F30 F50:F61 F32:F45 F7:F9">
-    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4902,7 +4936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="90" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4919,7 +4953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F81 F83:F90">
-    <cfRule type="containsText" dxfId="89" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4936,7 +4970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4953,7 +4987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="87" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4970,7 +5004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="86" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4987,7 +5021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="85" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5004,7 +5038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="84" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5021,7 +5055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="83" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5038,7 +5072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="containsText" dxfId="82" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F99))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5055,7 +5089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F104">
-    <cfRule type="containsText" dxfId="81" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F100))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5072,7 +5106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="containsText" dxfId="80" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5089,7 +5123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F92))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5106,7 +5140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F93))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5123,7 +5157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F94))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5140,7 +5174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5157,7 +5191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F96))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5174,7 +5208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F97))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5191,7 +5225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F98))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5208,7 +5242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5225,7 +5259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="71" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5242,7 +5276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5259,7 +5293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 F49">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5276,7 +5310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5293,7 +5327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5310,7 +5344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F105))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5327,7 +5361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F106))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5344,7 +5378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F107))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5477,70 +5511,74 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="10" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
     <col min="11" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>23</v>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1971</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5548,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
         <v>0.59</v>
@@ -5562,10 +5600,10 @@
         <v>1943</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5573,10 +5611,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4">
         <v>1.55</v>
@@ -5587,10 +5625,10 @@
         <v>1963</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5598,10 +5636,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
         <v>0.4</v>
@@ -5612,10 +5650,10 @@
         <v>1962</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5623,10 +5661,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
         <v>0.81</v>
@@ -5637,10 +5675,10 @@
         <v>1969</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5648,10 +5686,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
         <v>0.72</v>
@@ -5662,23 +5700,23 @@
         <v>2015</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
         <v>0.23</v>
@@ -5689,10 +5727,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5700,10 +5738,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4">
         <v>0.62</v>
@@ -5714,10 +5752,10 @@
         <v>2016</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5725,10 +5763,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4">
         <v>0.55000000000000004</v>
@@ -5739,10 +5777,10 @@
         <v>2000</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5750,10 +5788,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>0.75</v>
@@ -5764,10 +5802,10 @@
         <v>2007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -5775,10 +5813,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4">
         <v>0.69</v>
@@ -5789,10 +5827,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5800,10 +5838,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4">
         <v>0.93</v>
@@ -5814,10 +5852,10 @@
         <v>2005</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -5825,10 +5863,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4">
         <v>1.06</v>
@@ -5839,10 +5877,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -5850,10 +5888,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4">
         <v>1.0900000000000001</v>
@@ -5864,10 +5902,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5875,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4">
         <v>0.14000000000000001</v>
@@ -5889,10 +5927,10 @@
         <v>2012</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -5900,10 +5938,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4">
         <v>0.32</v>
@@ -5914,10 +5952,10 @@
         <v>2013</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5925,10 +5963,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4">
         <v>0.5</v>
@@ -5939,10 +5977,10 @@
         <v>2012</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5950,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4">
         <v>0.47</v>
@@ -5964,10 +6002,10 @@
         <v>2000</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -5975,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4">
         <v>0.79</v>
@@ -5989,25 +6027,25 @@
         <v>2010</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4">
         <v>1.1599999999999999</v>
@@ -6018,10 +6056,10 @@
         <v>2012</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6029,10 +6067,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4">
         <v>0.37</v>
@@ -6043,10 +6081,10 @@
         <v>2007</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -6054,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4">
         <v>0.32</v>
@@ -6068,10 +6106,10 @@
         <v>2008</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -6079,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I24" s="4">
         <v>0.56000000000000005</v>
@@ -6093,38 +6131,37 @@
         <v>2000</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I25" s="4">
         <v>1.32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <autoFilter ref="A2:G2" xr:uid="{8B6EDC4E-4736-442F-84EB-BCEB962219DE}"/>
+  <mergeCells count="3">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F8 F11:F12 F14:F18 F20:F22">
-    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6141,7 +6178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6158,7 +6195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6175,7 +6212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6192,7 +6229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6209,7 +6246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6226,7 +6263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6243,7 +6280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6260,7 +6297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6277,7 +6314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6328,70 +6365,74 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="10" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
     <col min="11" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>23</v>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1977</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -6399,10 +6440,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
         <v>0.16</v>
@@ -6413,10 +6454,10 @@
         <v>2010</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6424,10 +6465,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4">
         <v>0.6</v>
@@ -6438,10 +6479,10 @@
         <v>1982</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -6449,10 +6490,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
         <v>1.06</v>
@@ -6463,10 +6504,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -6474,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
         <v>0.95</v>
@@ -6488,10 +6529,10 @@
         <v>2003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6499,10 +6540,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
         <v>1.06</v>
@@ -6513,10 +6554,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6524,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
         <v>0.7</v>
@@ -6538,10 +6579,10 @@
         <v>2004</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6549,10 +6590,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4">
         <v>1.67</v>
@@ -6563,10 +6604,10 @@
         <v>2005</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6574,10 +6615,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4">
         <v>2.02</v>
@@ -6588,10 +6629,10 @@
         <v>1992</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6599,10 +6640,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>0.95</v>
@@ -6613,10 +6654,10 @@
         <v>1993</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6624,25 +6665,24 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <autoFilter ref="A2:G2" xr:uid="{BF750022-BCBD-463E-B210-0AB2874B0A1F}"/>
+  <mergeCells count="3">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F5:F9 F11:F12">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6659,7 +6699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6676,7 +6716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6713,84 +6753,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8CFB8-DFE4-404F-9B0E-F1D6CD127AED}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="10" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
     <col min="11" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>23</v>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2003</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
         <v>1.1200000000000001</v>
@@ -6801,23 +6845,23 @@
         <v>2003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4">
         <v>1.1200000000000001</v>
@@ -6828,23 +6872,23 @@
         <v>2003</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -6855,23 +6899,23 @@
         <v>2003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -6882,23 +6926,23 @@
         <v>2003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
         <v>1.0900000000000001</v>
@@ -6909,10 +6953,10 @@
         <v>2000</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6920,10 +6964,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
         <v>1.01</v>
@@ -6934,10 +6978,10 @@
         <v>2002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6945,10 +6989,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4">
         <v>1.08</v>
@@ -6959,10 +7003,10 @@
         <v>2003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6970,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4">
         <v>1.28</v>
@@ -6984,10 +7028,10 @@
         <v>2003</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6995,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>2.15</v>
@@ -7009,10 +7053,10 @@
         <v>2003</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -7020,10 +7064,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4">
         <v>2.21</v>
@@ -7034,10 +7078,10 @@
         <v>2003</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7045,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4">
         <v>1.48</v>
@@ -7059,10 +7103,10 @@
         <v>2001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -7070,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4">
         <v>3.22</v>
@@ -7084,10 +7128,10 @@
         <v>2003</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -7095,10 +7139,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4">
         <v>2.13</v>
@@ -7109,10 +7153,10 @@
         <v>2009</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7120,10 +7164,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4">
         <v>0.15</v>
@@ -7134,10 +7178,10 @@
         <v>2010</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7145,10 +7189,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4">
         <v>0.19</v>
@@ -7159,10 +7203,10 @@
         <v>2008</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -7170,10 +7214,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4">
         <v>0.36</v>
@@ -7184,10 +7228,10 @@
         <v>2009</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -7195,10 +7239,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4">
         <v>0.32</v>
@@ -7209,23 +7253,23 @@
         <v>2005</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4">
         <v>2.62</v>
@@ -7236,10 +7280,10 @@
         <v>2006</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7247,25 +7291,24 @@
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4">
         <v>1.29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <autoFilter ref="A2:G2" xr:uid="{5CD8CFB8-DFE4-404F-9B0E-F1D6CD127AED}"/>
+  <mergeCells count="3">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7282,7 +7325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7299,7 +7342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7316,7 +7359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7333,7 +7376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7350,7 +7393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="45" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7367,7 +7410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7384,7 +7427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7401,7 +7444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7418,7 +7461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7435,7 +7478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7452,7 +7495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7469,7 +7512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7486,7 +7529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7503,7 +7546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7520,7 +7563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7537,7 +7580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7554,7 +7597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7571,7 +7614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7617,71 +7660,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EC1F7-35EC-4741-AB28-8E1CFEB562B5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" customWidth="1"/>
-    <col min="9" max="10" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
     <col min="11" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>23</v>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1998</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -7689,10 +7736,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
         <v>0.2</v>
@@ -7703,10 +7750,10 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -7714,10 +7761,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4">
         <v>0.27</v>
@@ -7728,10 +7775,10 @@
         <v>1997</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -7739,10 +7786,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
         <v>0.25</v>
@@ -7753,10 +7800,10 @@
         <v>1998</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7764,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
         <v>0.18</v>
@@ -7778,10 +7825,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -7789,10 +7836,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
         <v>0.31</v>
@@ -7803,10 +7850,10 @@
         <v>2013</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7814,10 +7861,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
         <v>0.46</v>
@@ -7828,10 +7875,10 @@
         <v>1993</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7839,10 +7886,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4">
         <v>0.7</v>
@@ -7853,10 +7900,10 @@
         <v>1998</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -7864,10 +7911,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4">
         <v>0.48</v>
@@ -7878,10 +7925,10 @@
         <v>2013</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7889,10 +7936,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>0.63</v>
@@ -7903,10 +7950,10 @@
         <v>1993</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -7914,10 +7961,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4">
         <v>1.1399999999999999</v>
@@ -7928,10 +7975,10 @@
         <v>2005</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7939,10 +7986,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4">
         <v>0.41</v>
@@ -7953,10 +8000,10 @@
         <v>2006</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -7964,10 +8011,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4">
         <v>1.2</v>
@@ -7978,10 +8025,10 @@
         <v>2006</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -7989,10 +8036,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4">
         <v>0.19</v>
@@ -8003,10 +8050,10 @@
         <v>2007</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -8014,10 +8061,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4">
         <v>0.2</v>
@@ -8028,10 +8075,10 @@
         <v>1976</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -8039,10 +8086,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4">
         <v>0.2</v>
@@ -8053,10 +8100,10 @@
         <v>2001</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -8064,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4">
         <v>0.25</v>
@@ -8078,10 +8125,10 @@
         <v>2004</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -8089,10 +8136,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4">
         <v>0.16</v>
@@ -8103,10 +8150,10 @@
         <v>2009</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -8114,10 +8161,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4">
         <v>0.48</v>
@@ -8128,10 +8175,10 @@
         <v>1997</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -8139,10 +8186,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4">
         <v>0.38</v>
@@ -8153,10 +8200,10 @@
         <v>1985</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -8164,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4">
         <v>0.19</v>
@@ -8178,10 +8225,10 @@
         <v>2005</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -8189,10 +8236,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4">
         <v>0.21</v>
@@ -8203,10 +8250,10 @@
         <v>1982</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -8214,10 +8261,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I24" s="4">
         <v>0.27</v>
@@ -8228,10 +8275,10 @@
         <v>1986</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -8239,10 +8286,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I25" s="4">
         <v>0.24</v>
@@ -8253,10 +8300,10 @@
         <v>2001</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -8264,10 +8311,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I26" s="4">
         <v>0.15</v>
@@ -8278,10 +8325,10 @@
         <v>2011</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -8289,10 +8336,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I27" s="4">
         <v>0.11</v>
@@ -8303,10 +8350,10 @@
         <v>2012</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -8314,10 +8361,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I28" s="4">
         <v>0.14000000000000001</v>
@@ -8328,10 +8375,10 @@
         <v>1997</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -8339,10 +8386,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4">
         <v>0.39</v>
@@ -8353,10 +8400,10 @@
         <v>2013</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -8364,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I30" s="4">
         <v>0.26</v>
@@ -8378,23 +8425,23 @@
         <v>1917</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="16">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I31" s="4">
         <v>100</v>
@@ -8405,10 +8452,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -8416,10 +8463,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4">
         <v>0.61</v>
@@ -8430,10 +8477,10 @@
         <v>1968</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -8441,10 +8488,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I33" s="4">
         <v>0.2</v>
@@ -8455,23 +8502,23 @@
         <v>2019</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I34" s="4">
         <v>1.89</v>
@@ -8482,10 +8529,10 @@
         <v>1999</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -8493,10 +8540,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4">
         <v>0.2</v>
@@ -8507,10 +8554,10 @@
         <v>1991</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -8518,10 +8565,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I36" s="4">
         <v>0.45</v>
@@ -8532,10 +8579,10 @@
         <v>2010</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -8543,10 +8590,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I37" s="4">
         <v>3.02</v>
@@ -8557,10 +8604,10 @@
         <v>2007</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -8568,10 +8615,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I38" s="4">
         <v>1.91</v>
@@ -8582,10 +8629,10 @@
         <v>1997</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -8593,10 +8640,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I39" s="4">
         <v>0.2</v>
@@ -8607,10 +8654,10 @@
         <v>2000</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -8618,10 +8665,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I40" s="4">
         <v>0.26</v>
@@ -8632,10 +8679,10 @@
         <v>2002</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -8643,10 +8690,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4">
         <v>0.17</v>
@@ -8657,10 +8704,10 @@
         <v>1990</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -8668,10 +8715,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4">
         <v>0.28999999999999998</v>
@@ -8682,10 +8729,10 @@
         <v>2002</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -8693,10 +8740,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I43" s="4">
         <v>0.16</v>
@@ -8707,10 +8754,10 @@
         <v>2014</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -8718,10 +8765,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I44" s="4">
         <v>0.15</v>
@@ -8732,10 +8779,10 @@
         <v>1988</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -8743,10 +8790,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I45" s="4">
         <v>0.21</v>
@@ -8757,10 +8804,10 @@
         <v>2001</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -8768,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I46" s="4">
         <v>0.14000000000000001</v>
@@ -8782,10 +8829,10 @@
         <v>2006</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -8793,10 +8840,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I47" s="4">
         <v>0.19</v>
@@ -8807,10 +8854,10 @@
         <v>2009</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -8818,10 +8865,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I48" s="4">
         <v>0.32</v>
@@ -8832,10 +8879,10 @@
         <v>2012</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -8843,10 +8890,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I49" s="4">
         <v>0.21</v>
@@ -8857,25 +8904,25 @@
         <v>1996</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I50" s="4">
         <v>1.02</v>
@@ -8886,10 +8933,10 @@
         <v>2001</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -8897,10 +8944,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I51" s="4">
         <v>1.21</v>
@@ -8911,10 +8958,10 @@
         <v>2003</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -8922,10 +8969,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I52" s="4">
         <v>0.78</v>
@@ -8936,10 +8983,10 @@
         <v>2004</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -8947,10 +8994,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I53" s="4">
         <v>1.27</v>
@@ -8961,10 +9008,10 @@
         <v>2006</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -8972,10 +9019,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I54" s="4">
         <v>1.05</v>
@@ -8986,10 +9033,10 @@
         <v>1997</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -8997,10 +9044,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I55" s="4">
         <v>0.4</v>
@@ -9011,10 +9058,10 @@
         <v>1993</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -9022,10 +9069,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I56" s="4">
         <v>0.62</v>
@@ -9036,10 +9083,10 @@
         <v>1998</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -9047,10 +9094,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I57" s="4">
         <v>1</v>
@@ -9061,10 +9108,10 @@
         <v>1997</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -9072,10 +9119,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I58" s="4">
         <v>1.38</v>
@@ -9086,23 +9133,23 @@
         <v>1993</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="5">
         <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I59" s="4">
         <v>0.19</v>
@@ -9113,23 +9160,23 @@
         <v>1992</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I60" s="4">
         <v>0.33</v>
@@ -9140,10 +9187,10 @@
         <v>1995</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -9151,10 +9198,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I61" s="4">
         <v>3.37</v>
@@ -9165,10 +9212,10 @@
         <v>2007</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -9176,10 +9223,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I62" s="4">
         <v>0.33</v>
@@ -9190,10 +9237,10 @@
         <v>2004</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -9201,10 +9248,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I63" s="4">
         <v>0.3</v>
@@ -9215,10 +9262,10 @@
         <v>1997</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -9226,10 +9273,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" s="4">
         <v>0.34</v>
@@ -9240,10 +9287,10 @@
         <v>2010</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -9251,10 +9298,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I65" s="4">
         <v>0.36</v>
@@ -9265,10 +9312,10 @@
         <v>1970</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -9276,10 +9323,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I66" s="4">
         <v>0.23</v>
@@ -9290,10 +9337,10 @@
         <v>1970</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -9301,10 +9348,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I67" s="4">
         <v>0.35</v>
@@ -9315,23 +9362,23 @@
         <v>2003</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5">
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I68" s="4">
         <v>0.31</v>
@@ -9342,10 +9389,10 @@
         <v>1981</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -9353,26 +9400,25 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I69" s="4">
         <v>0.88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <autoFilter ref="A2:G2" xr:uid="{2D9EC1F7-35EC-4741-AB28-8E1CFEB562B5}"/>
+  <mergeCells count="3">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="31" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9389,7 +9435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35 F46 F58">
-    <cfRule type="containsText" dxfId="30" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9406,7 +9452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="29" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9423,7 +9469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F32 F44 F55 F67">
-    <cfRule type="containsText" dxfId="28" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9440,7 +9486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F25 F37 F48 F60">
-    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9457,7 +9503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16 F40 F51 F63">
-    <cfRule type="containsText" dxfId="26" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9474,7 +9520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="25" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9491,7 +9537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 F27 F39 F50 F62">
-    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9508,7 +9554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29 F52 F64">
-    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9525,7 +9571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42 F65">
-    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9542,7 +9588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9559,7 +9605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9576,7 +9622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26 F49 F61">
-    <cfRule type="containsText" dxfId="19" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9593,7 +9639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="18" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9610,7 +9656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 F31 F43 F54 F66">
-    <cfRule type="containsText" dxfId="17" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9627,7 +9673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F36 F59">
-    <cfRule type="containsText" dxfId="16" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9644,7 +9690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F34 F47 F57 F69">
-    <cfRule type="containsText" dxfId="15" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9661,7 +9707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 F45 F56 F68">
-    <cfRule type="containsText" dxfId="14" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9678,7 +9724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9695,7 +9741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="12" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9712,7 +9758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="11" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9729,7 +9775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="10" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9746,7 +9792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9763,7 +9809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="8" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9780,7 +9826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9797,7 +9843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="6" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9814,7 +9860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="5" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9831,7 +9877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="4" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9848,7 +9894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="3" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9865,7 +9911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="2" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9882,7 +9928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9899,7 +9945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="0" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10011,13 +10057,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -10025,10 +10071,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -10036,10 +10082,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">

--- a/Collections/Foreign_various/Foreighn_originals.xlsx
+++ b/Collections/Foreign_various/Foreighn_originals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Foreign_various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B284846C-5212-4F67-9283-E57F3802D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239D6A9-124C-4E3C-A272-CE53FF276366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Europe" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="F70" authorId="0" shapeId="0" xr:uid="{764C752A-FEFE-4AD1-9747-CC557D7439D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Находится не в альбоме, а среди дорогих
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="265">
   <si>
     <t>-</t>
   </si>
@@ -845,13 +860,31 @@
   </si>
   <si>
     <t>Subtype_3#Special_distinctions_2</t>
+  </si>
+  <si>
+    <t>The Chola Kingdom</t>
+  </si>
+  <si>
+    <t>Raja Raja Chola I</t>
+  </si>
+  <si>
+    <t>985-1014</t>
+  </si>
+  <si>
+    <t>1 Massa</t>
+  </si>
+  <si>
+    <t>~3</t>
+  </si>
+  <si>
+    <t>Подарил дяде Богдану??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -916,6 +949,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1060,7 +1106,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1129,6 +1175,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1147,13 +1199,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="99">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1162,6 +1215,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1926,9 +1987,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="97"/>
-      <tableStyleElement type="firstRowStripe" dxfId="96"/>
-      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="headerRow" dxfId="98"/>
+      <tableStyleElement type="firstRowStripe" dxfId="97"/>
+      <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2223,11 +2284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E76:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2246,17 +2307,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2280,8 +2341,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -4919,7 +4980,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3 F73:F75 F5 F11:F12 F14:F21 F86 F63:F70 F23:F30 F50:F61 F32:F45 F7:F9">
-    <cfRule type="containsText" dxfId="94" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4936,7 +4997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="93" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4953,7 +5014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F81 F83:F90">
-    <cfRule type="containsText" dxfId="92" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4970,7 +5031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4987,7 +5048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="90" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5004,7 +5065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="89" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5021,7 +5082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="88" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5038,7 +5099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="87" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5055,7 +5116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5072,7 +5133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="containsText" dxfId="85" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F99))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5089,7 +5150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F104">
-    <cfRule type="containsText" dxfId="84" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F100))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5106,7 +5167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="containsText" dxfId="83" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5123,7 +5184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="containsText" dxfId="82" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F92))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5140,7 +5201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F93))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5157,7 +5218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="containsText" dxfId="80" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F94))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5174,7 +5235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5191,7 +5252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F96))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5208,7 +5269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F97))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5225,7 +5286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F98))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5242,7 +5303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5259,7 +5320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5276,7 +5337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5293,11 +5354,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 F49">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49 F47">
+  <conditionalFormatting sqref="F47 F49">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5310,7 +5371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5327,7 +5388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5344,7 +5405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F105))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5361,7 +5422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F106))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5378,7 +5439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F107))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5533,17 +5594,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5567,8 +5628,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -6161,7 +6222,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F8 F11:F12 F14:F18 F20:F22">
-    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6178,7 +6239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6195,7 +6256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6212,7 +6273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6229,7 +6290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6246,7 +6307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6263,7 +6324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6280,7 +6341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6297,7 +6358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6314,7 +6375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6387,17 +6448,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6421,8 +6482,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -6682,7 +6743,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F5:F9 F11:F12">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6699,7 +6760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6716,7 +6777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6776,17 +6837,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6810,8 +6871,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -7308,7 +7369,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7325,7 +7386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="52" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7342,7 +7403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7359,7 +7420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7376,7 +7437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7393,7 +7454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7410,7 +7471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7427,7 +7488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7444,7 +7505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7461,7 +7522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7478,7 +7539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7495,7 +7556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7512,7 +7573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7529,7 +7590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7546,7 +7607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7563,7 +7624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7580,7 +7641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7597,7 +7658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7614,7 +7675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7658,13 +7719,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EC1F7-35EC-4741-AB28-8E1CFEB562B5}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7683,17 +7744,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7717,8 +7778,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -9282,7 +9343,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>2010</v>
       </c>
@@ -9307,7 +9368,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>1970</v>
       </c>
@@ -9332,7 +9393,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1970</v>
       </c>
@@ -9357,7 +9418,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>2003</v>
       </c>
@@ -9384,7 +9445,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1981</v>
       </c>
@@ -9407,6 +9468,34 @@
       </c>
       <c r="I69" s="4">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="24">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J70" s="32" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -9418,11 +9507,45 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="34" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35 F46 F58">
+    <cfRule type="containsText" dxfId="34" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35 F46 F58">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="33" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9434,29 +9557,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35 F46 F58">
-    <cfRule type="containsText" dxfId="33" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46 F35 F58">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
     <cfRule type="containsText" dxfId="32" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32 F20 F44 F55 F67">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9468,13 +9574,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
-    <cfRule type="containsText" dxfId="31" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="F13 F25 F37 F48 F60">
+    <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13 F25 F37 F48 F60">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -9485,12 +9591,131 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F25 F37 F48 F60">
-    <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F13 F37 F48 F60">
+  <conditionalFormatting sqref="F16 F40 F51 F63">
+    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16 F40 F51 F63">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="29" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
+    <cfRule type="containsText" dxfId="28" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 F15 F39 F50 F62">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29 F52 F64">
+    <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29 F52 F64">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42 F65">
+    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65 F42">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26 F49 F61">
+    <cfRule type="containsText" dxfId="23" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26 F49 F61">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9502,13 +9727,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F40 F51 F63">
-    <cfRule type="containsText" dxfId="29" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40 F16 F51 F63">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -9519,63 +9744,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
-    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F52 F64">
-    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52 F29 F64">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42 F65">
-    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42 F65">
+  <conditionalFormatting sqref="F19 F31 F43 F54 F66">
+    <cfRule type="containsText" dxfId="21" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19 F31 F43 F54 F66">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9587,13 +9761,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="F24 F36 F59">
+    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36 F24 F59">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -9604,12 +9778,267 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
+    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34 F22 F47 F57 F69">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33 F45 F56 F68">
+    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33 F45 F56 F68">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="12" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="10" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="7" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="4" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9621,336 +10050,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F49 F61">
-    <cfRule type="containsText" dxfId="22" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49 F26 F61">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F31 F43 F54 F66">
-    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31 F19 F43 F54 F66">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F36 F59">
-    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F36 F59">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
-    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F45 F56 F68">
-    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45 F33 F56 F68">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="14" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="11" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="7" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="4" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="3" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>

--- a/Collections/Foreign_various/Foreighn_originals.xlsx
+++ b/Collections/Foreign_various/Foreighn_originals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Foreign_various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239D6A9-124C-4E3C-A272-CE53FF276366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1D4222-DF89-4E4C-A208-88924AB02B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,27 +63,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="0" shapeId="0" xr:uid="{764C752A-FEFE-4AD1-9747-CC557D7439D2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Находится не в альбоме, а среди дорогих
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="259">
   <si>
     <t>-</t>
   </si>
@@ -860,31 +845,13 @@
   </si>
   <si>
     <t>Subtype_3#Special_distinctions_2</t>
-  </si>
-  <si>
-    <t>The Chola Kingdom</t>
-  </si>
-  <si>
-    <t>Raja Raja Chola I</t>
-  </si>
-  <si>
-    <t>985-1014</t>
-  </si>
-  <si>
-    <t>1 Massa</t>
-  </si>
-  <si>
-    <t>~3</t>
-  </si>
-  <si>
-    <t>Подарил дяде Богдану??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -939,13 +906,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -954,13 +914,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1106,7 +1059,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1151,9 +1104,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1175,11 +1125,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1199,23 +1146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1953,12 +1890,13 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1987,9 +1925,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="98"/>
-      <tableStyleElement type="firstRowStripe" dxfId="97"/>
-      <tableStyleElement type="secondRowStripe" dxfId="96"/>
+      <tableStyleElement type="headerRow" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2011,9 +1949,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2303,27 +2241,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2341,8 +2279,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -4980,7 +4918,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3 F73:F75 F5 F11:F12 F14:F21 F86 F63:F70 F23:F30 F50:F61 F32:F45 F7:F9">
-    <cfRule type="containsText" dxfId="95" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4997,7 +4935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="94" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5014,7 +4952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F81 F83:F90">
-    <cfRule type="containsText" dxfId="93" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5031,7 +4969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="92" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5048,7 +4986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="91" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5065,7 +5003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="90" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5082,7 +5020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="89" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5099,7 +5037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="88" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5116,7 +5054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="87" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F82))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5133,7 +5071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="containsText" dxfId="86" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F99))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5150,7 +5088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F104">
-    <cfRule type="containsText" dxfId="85" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F100))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5167,7 +5105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="containsText" dxfId="84" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F91))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5184,7 +5122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="containsText" dxfId="83" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F92))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5201,7 +5139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="containsText" dxfId="82" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F93))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5218,7 +5156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F94))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5235,7 +5173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="containsText" dxfId="80" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F95))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5252,7 +5190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="containsText" dxfId="79" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F96))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5269,7 +5207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="containsText" dxfId="78" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F97))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5286,7 +5224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F98))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5303,7 +5241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5320,7 +5258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5337,7 +5275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5354,11 +5292,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 F49">
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 F49">
+  <conditionalFormatting sqref="F49 F47">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5371,7 +5309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5388,7 +5326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5405,7 +5343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F105))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5422,7 +5360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F106))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5439,7 +5377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F107))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5590,27 +5528,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -5628,8 +5566,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -6222,7 +6160,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F8 F11:F12 F14:F18 F20:F22">
-    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6239,7 +6177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6256,7 +6194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6273,7 +6211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6290,7 +6228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6307,7 +6245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,7 +6262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6341,7 +6279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6358,7 +6296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6375,7 +6313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6444,27 +6382,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6482,8 +6420,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -6743,7 +6681,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F5:F9 F11:F12">
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6760,7 +6698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6777,7 +6715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6833,27 +6771,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6871,8 +6809,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -7369,7 +7307,7 @@
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7386,7 +7324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7403,7 +7341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7420,7 +7358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7437,7 +7375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7454,7 +7392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7471,7 +7409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7488,7 +7426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7505,7 +7443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7522,7 +7460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7539,7 +7477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7556,7 +7494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7573,7 +7511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7590,7 +7528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7607,7 +7545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7624,7 +7562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7641,7 +7579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7658,7 +7596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7675,7 +7613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7719,13 +7657,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EC1F7-35EC-4741-AB28-8E1CFEB562B5}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7740,27 +7678,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -7778,8 +7716,8 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -8495,7 +8433,7 @@
         <v>211</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="16">
+      <c r="F31" s="23">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -9343,7 +9281,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>2010</v>
       </c>
@@ -9368,7 +9306,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>1970</v>
       </c>
@@ -9393,7 +9331,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1970</v>
       </c>
@@ -9418,7 +9356,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>2003</v>
       </c>
@@ -9445,7 +9383,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1981</v>
       </c>
@@ -9468,34 +9406,6 @@
       </c>
       <c r="I69" s="4">
         <v>0.88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="24">
-        <v>1</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J70" s="32" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -9507,7 +9417,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="35" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9524,11 +9434,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35 F46 F58">
-    <cfRule type="containsText" dxfId="34" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35 F46 F58">
+  <conditionalFormatting sqref="F46 F35 F58">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9541,7 +9451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="33" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9558,11 +9468,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F32 F44 F55 F67">
-    <cfRule type="containsText" dxfId="32" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F20 F44 F55 F67">
+  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9575,11 +9485,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F25 F37 F48 F60">
-    <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F25 F37 F48 F60">
+  <conditionalFormatting sqref="F25 F13 F37 F48 F60">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9592,11 +9502,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16 F40 F51 F63">
-    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F40 F51 F63">
+  <conditionalFormatting sqref="F40 F16 F51 F63">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9609,7 +9519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="29" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9626,11 +9536,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 F27 F39 F50 F62">
-    <cfRule type="containsText" dxfId="28" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27 F15 F39 F50 F62">
+  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9643,11 +9553,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29 F52 F64">
-    <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F52 F64">
+  <conditionalFormatting sqref="F52 F29 F64">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9660,11 +9570,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42 F65">
-    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65 F42">
+  <conditionalFormatting sqref="F42 F65">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9677,7 +9587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9694,7 +9604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9711,11 +9621,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26 F49 F61">
-    <cfRule type="containsText" dxfId="23" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F49 F61">
+  <conditionalFormatting sqref="F49 F26 F61">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9728,7 +9638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9745,11 +9655,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 F31 F43 F54 F66">
-    <cfRule type="containsText" dxfId="21" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F31 F43 F54 F66">
+  <conditionalFormatting sqref="F31 F19 F43 F54 F66">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9762,11 +9672,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F36 F59">
-    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36 F24 F59">
+  <conditionalFormatting sqref="F24 F36 F59">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9779,11 +9689,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F34 F47 F57 F69">
-    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F22 F47 F57 F69">
+  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9796,11 +9706,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 F45 F56 F68">
-    <cfRule type="containsText" dxfId="18" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F45 F56 F68">
+  <conditionalFormatting sqref="F45 F33 F56 F68">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9813,7 +9723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9830,7 +9740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9847,7 +9757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9864,7 +9774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9881,7 +9791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9898,7 +9808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="12" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9915,7 +9825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9932,7 +9842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="10" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9949,7 +9859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9966,7 +9876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="8" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9983,7 +9893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="7" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10000,7 +9910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10017,7 +9927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10034,29 +9944,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="4" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
     <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>

--- a/Collections/Foreign_various/Foreighn_originals.xlsx
+++ b/Collections/Foreign_various/Foreighn_originals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Foreign_various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1D4222-DF89-4E4C-A208-88924AB02B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A25818-2D14-4044-92D8-3EB559E53A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -48,7 +51,7 @@
     <author>Lord_Alexator</author>
   </authors>
   <commentList>
-    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{3DC43694-E52B-463D-B006-32F3FAC0EF36}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{3DC43694-E52B-463D-B006-32F3FAC0EF36}">
       <text>
         <r>
           <rPr>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="262">
   <si>
     <t>-</t>
   </si>
@@ -845,6 +848,15 @@
   </si>
   <si>
     <t>Subtype_3#Special_distinctions_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	5 yuan</t>
+  </si>
+  <si>
+    <t>Colored</t>
+  </si>
+  <si>
+    <t>Beijing Opera</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2235,7 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E99" sqref="E76:F99"/>
@@ -7657,13 +7669,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9EC1F7-35EC-4741-AB28-8E1CFEB562B5}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B27:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8421,44 +8433,48 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>1917</v>
+        <v>2025</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="23">
+        <v>261</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="4">
-        <v>100</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>2019</v>
+        <v>1917</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="5">
+      <c r="F32" s="23">
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -8468,18 +8484,18 @@
         <v>10</v>
       </c>
       <c r="I32" s="4">
-        <v>0.61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>1968</v>
+        <v>2019</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -8493,70 +8509,70 @@
         <v>10</v>
       </c>
       <c r="I33" s="4">
-        <v>0.2</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>2019</v>
+        <v>1968</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>216</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="4">
-        <v>1.89</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>215</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="4">
-        <v>0.2</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -8570,12 +8586,12 @@
         <v>10</v>
       </c>
       <c r="I36" s="4">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>217</v>
@@ -8595,18 +8611,18 @@
         <v>10</v>
       </c>
       <c r="I37" s="4">
-        <v>3.02</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -8620,18 +8636,18 @@
         <v>10</v>
       </c>
       <c r="I38" s="4">
-        <v>1.91</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -8639,18 +8655,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="4">
-        <v>0.2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>220</v>
@@ -8670,12 +8686,12 @@
         <v>10</v>
       </c>
       <c r="I40" s="4">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>220</v>
@@ -8689,24 +8705,24 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="4">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>1990</v>
+        <v>2002</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -8720,18 +8736,18 @@
         <v>10</v>
       </c>
       <c r="I42" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -8745,12 +8761,12 @@
         <v>10</v>
       </c>
       <c r="I43" s="4">
-        <v>0.16</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>223</v>
@@ -8764,24 +8780,24 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I44" s="4">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>1988</v>
+        <v>2014</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -8789,18 +8805,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="4">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>223</v>
@@ -8814,18 +8830,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>223</v>
@@ -8839,24 +8855,24 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="4">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -8864,18 +8880,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="4">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>223</v>
@@ -8895,72 +8911,72 @@
         <v>10</v>
       </c>
       <c r="I49" s="4">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="5">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I50" s="4">
-        <v>1.02</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="F51" s="5">
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I51" s="4">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -8974,18 +8990,18 @@
         <v>10</v>
       </c>
       <c r="I52" s="4">
-        <v>0.78</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -8999,12 +9015,12 @@
         <v>10</v>
       </c>
       <c r="I53" s="4">
-        <v>1.27</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>230</v>
@@ -9018,24 +9034,24 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="4">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -9043,24 +9059,24 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I55" s="4">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -9068,18 +9084,18 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I56" s="4">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>235</v>
@@ -9099,18 +9115,18 @@
         <v>10</v>
       </c>
       <c r="I57" s="4">
-        <v>1</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -9124,22 +9140,20 @@
         <v>10</v>
       </c>
       <c r="I58" s="4">
-        <v>1.38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5">
         <v>1</v>
@@ -9151,70 +9165,72 @@
         <v>10</v>
       </c>
       <c r="I59" s="4">
-        <v>0.19</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I60" s="4">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>242</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="5">
         <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="4">
-        <v>3.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -9228,18 +9244,18 @@
         <v>10</v>
       </c>
       <c r="I62" s="4">
-        <v>0.33</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -9247,24 +9263,24 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I63" s="4">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -9272,18 +9288,18 @@
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="4">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>198</v>
@@ -9297,24 +9313,24 @@
         <v>1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="4">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>1970</v>
+        <v>2010</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -9322,13 +9338,13 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="4">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9339,7 +9355,7 @@
         <v>249</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -9353,22 +9369,20 @@
         <v>10</v>
       </c>
       <c r="I67" s="4">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>2003</v>
+        <v>1970</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>254</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="5">
         <v>1</v>
@@ -9380,31 +9394,58 @@
         <v>10</v>
       </c>
       <c r="I68" s="4">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>1981</v>
+        <v>2003</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="5">
         <v>1</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="4">
+      <c r="H70" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="4">
         <v>0.88</v>
       </c>
     </row>
@@ -9433,12 +9474,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35 F46 F58">
+  <conditionalFormatting sqref="F36 F47 F59">
     <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46 F35 F58">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47 F36 F59">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9467,12 +9508,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
+  <conditionalFormatting sqref="F20 F33 F45 F56 F68">
     <cfRule type="containsText" dxfId="28" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F32 F44 F55 F67">
+  <conditionalFormatting sqref="F33 F20 F45 F56 F68">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9484,12 +9525,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F25 F37 F48 F60">
+  <conditionalFormatting sqref="F13 F25 F38 F49 F61">
     <cfRule type="containsText" dxfId="27" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F13 F37 F48 F60">
+  <conditionalFormatting sqref="F25 F13 F38 F49 F61">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9501,12 +9542,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F40 F51 F63">
+  <conditionalFormatting sqref="F16 F41 F52 F64">
     <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40 F16 F51 F63">
+  <conditionalFormatting sqref="F41 F16 F52 F64">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9535,12 +9576,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
+  <conditionalFormatting sqref="F15 F27 F40 F51 F63">
     <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F27 F39 F50 F62">
+  <conditionalFormatting sqref="F27 F15 F40 F51 F63">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9552,12 +9593,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F52 F64">
+  <conditionalFormatting sqref="F29 F53 F65">
     <cfRule type="containsText" dxfId="23" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52 F29 F64">
+  <conditionalFormatting sqref="F29 F53 F65">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9569,12 +9610,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42 F65">
+  <conditionalFormatting sqref="F43 F66">
     <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42 F65">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 F66">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9603,12 +9644,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9620,12 +9661,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F49 F61">
+  <conditionalFormatting sqref="F26 F50 F62">
     <cfRule type="containsText" dxfId="19" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49 F26 F61">
+  <conditionalFormatting sqref="F26 F50 F62">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9654,12 +9695,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F31 F43 F54 F66">
+  <conditionalFormatting sqref="F19 F32 F44 F55 F67">
     <cfRule type="containsText" dxfId="17" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31 F19 F43 F54 F66">
+  <conditionalFormatting sqref="F32 F19 F44 F55 F67">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9671,12 +9712,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F36 F59">
+  <conditionalFormatting sqref="F24 F37 F60">
     <cfRule type="containsText" dxfId="16" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F36 F59">
+  <conditionalFormatting sqref="F24 F37 F60">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9688,12 +9729,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
+  <conditionalFormatting sqref="F22 F35 F48 F58 F70">
     <cfRule type="containsText" dxfId="15" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F34 F47 F57 F69">
+  <conditionalFormatting sqref="F22 F35 F48 F58 F70">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9705,12 +9746,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F45 F56 F68">
+  <conditionalFormatting sqref="F34 F46 F57 F69">
     <cfRule type="containsText" dxfId="14" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45 F33 F56 F68">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46 F34 F57 F69">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9790,12 +9831,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F42">
     <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9824,12 +9865,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="F54">
     <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9943,12 +9984,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="0" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9981,57 +10022,58 @@
     <hyperlink ref="H23" r:id="rId18" xr:uid="{54A705CD-E3A8-4A9D-BEB4-CC41B278C1ED}"/>
     <hyperlink ref="H24" r:id="rId19" xr:uid="{196BE5A2-9F2A-4FDE-B330-5687F76BCC88}"/>
     <hyperlink ref="H25" r:id="rId20" xr:uid="{4970A37F-9154-4C4F-BBB5-3FEF329DFEF5}"/>
-    <hyperlink ref="H37" r:id="rId21" xr:uid="{67C71B4C-423E-4643-B320-F2102012CD12}"/>
-    <hyperlink ref="H48" r:id="rId22" xr:uid="{24A0D79A-AE97-4B90-ADC8-E9F7F286B52B}"/>
-    <hyperlink ref="H60" r:id="rId23" xr:uid="{0DDA4B0A-4501-4B70-83C2-06971C2DB0E7}"/>
+    <hyperlink ref="H38" r:id="rId21" xr:uid="{67C71B4C-423E-4643-B320-F2102012CD12}"/>
+    <hyperlink ref="H49" r:id="rId22" xr:uid="{24A0D79A-AE97-4B90-ADC8-E9F7F286B52B}"/>
+    <hyperlink ref="H61" r:id="rId23" xr:uid="{0DDA4B0A-4501-4B70-83C2-06971C2DB0E7}"/>
     <hyperlink ref="H26" r:id="rId24" xr:uid="{B2C2CB3C-8635-4663-8C02-D3B400640F5E}"/>
-    <hyperlink ref="H38" r:id="rId25" xr:uid="{6941203B-11FE-4AC3-9088-60E79AF3B5B8}"/>
-    <hyperlink ref="H49" r:id="rId26" xr:uid="{29156AC6-6543-416E-8E47-6CDC50568C9B}"/>
-    <hyperlink ref="H61" r:id="rId27" xr:uid="{5DFC5D64-F72C-4E7A-A57A-1A7DF4DCD4D7}"/>
+    <hyperlink ref="H39" r:id="rId25" xr:uid="{6941203B-11FE-4AC3-9088-60E79AF3B5B8}"/>
+    <hyperlink ref="H50" r:id="rId26" xr:uid="{29156AC6-6543-416E-8E47-6CDC50568C9B}"/>
+    <hyperlink ref="H62" r:id="rId27" xr:uid="{5DFC5D64-F72C-4E7A-A57A-1A7DF4DCD4D7}"/>
     <hyperlink ref="H27" r:id="rId28" xr:uid="{1AE8888B-DF54-4DA1-AD8D-C0A10923F17C}"/>
-    <hyperlink ref="H39" r:id="rId29" xr:uid="{C9DE2E50-F665-48B0-9191-3483B9375C35}"/>
-    <hyperlink ref="H50" r:id="rId30" xr:uid="{A340132B-99D7-433E-ABD1-EC5E0C8182A3}"/>
-    <hyperlink ref="H62" r:id="rId31" xr:uid="{E89B2B5F-2817-4E85-9610-7140DEE3933E}"/>
+    <hyperlink ref="H40" r:id="rId29" xr:uid="{C9DE2E50-F665-48B0-9191-3483B9375C35}"/>
+    <hyperlink ref="H51" r:id="rId30" xr:uid="{A340132B-99D7-433E-ABD1-EC5E0C8182A3}"/>
+    <hyperlink ref="H63" r:id="rId31" xr:uid="{E89B2B5F-2817-4E85-9610-7140DEE3933E}"/>
     <hyperlink ref="H28" r:id="rId32" xr:uid="{B2676C7D-8999-402E-804F-7EED3B418AB1}"/>
-    <hyperlink ref="H40" r:id="rId33" xr:uid="{449E2ECE-8AA8-47CE-B6BC-63391C703058}"/>
-    <hyperlink ref="H51" r:id="rId34" xr:uid="{BDC71F5F-438B-4F40-BAA8-B9523A8C439D}"/>
-    <hyperlink ref="H63" r:id="rId35" xr:uid="{AEDD96BE-43B8-47DE-BE5A-D971601A8437}"/>
+    <hyperlink ref="H41" r:id="rId33" xr:uid="{449E2ECE-8AA8-47CE-B6BC-63391C703058}"/>
+    <hyperlink ref="H52" r:id="rId34" xr:uid="{BDC71F5F-438B-4F40-BAA8-B9523A8C439D}"/>
+    <hyperlink ref="H64" r:id="rId35" xr:uid="{AEDD96BE-43B8-47DE-BE5A-D971601A8437}"/>
     <hyperlink ref="H29" r:id="rId36" xr:uid="{BB81D8D3-1794-4B65-AF58-55F6DC1E2E00}"/>
-    <hyperlink ref="H41" r:id="rId37" xr:uid="{BE49A65D-21CF-487A-883B-F40099760799}"/>
-    <hyperlink ref="H52" r:id="rId38" xr:uid="{D2A3156B-57FB-477B-AC93-F8E464C5DF87}"/>
-    <hyperlink ref="H64" r:id="rId39" xr:uid="{371568E0-1F66-46FF-829A-804F63272149}"/>
+    <hyperlink ref="H42" r:id="rId37" xr:uid="{BE49A65D-21CF-487A-883B-F40099760799}"/>
+    <hyperlink ref="H53" r:id="rId38" xr:uid="{D2A3156B-57FB-477B-AC93-F8E464C5DF87}"/>
+    <hyperlink ref="H65" r:id="rId39" xr:uid="{371568E0-1F66-46FF-829A-804F63272149}"/>
     <hyperlink ref="H30" r:id="rId40" xr:uid="{EDB57F83-244D-44CD-A3F5-57A18AF0E4C1}"/>
-    <hyperlink ref="H42" r:id="rId41" xr:uid="{14B927AA-2551-498C-B60C-438BC3096E84}"/>
-    <hyperlink ref="H53" r:id="rId42" xr:uid="{89ACDC0E-047E-4961-9A9F-8435E30B6E90}"/>
-    <hyperlink ref="H65" r:id="rId43" xr:uid="{FC283306-4304-4706-B9C8-AC6E7FBA619B}"/>
-    <hyperlink ref="H31" r:id="rId44" xr:uid="{5D594E85-3D9B-46A5-9610-08078D43E336}"/>
-    <hyperlink ref="H43" r:id="rId45" xr:uid="{2B4969A3-7875-44F4-A361-42FA0236C07A}"/>
-    <hyperlink ref="H54" r:id="rId46" xr:uid="{92D26895-C4E4-41F6-91DB-01438D89A436}"/>
-    <hyperlink ref="H66" r:id="rId47" xr:uid="{0F5A8C5E-52D4-4DD3-9E32-D736E2C4BD68}"/>
-    <hyperlink ref="H32" r:id="rId48" xr:uid="{719E16F9-C1CD-4569-B52F-84FCA542F2C7}"/>
-    <hyperlink ref="H44" r:id="rId49" xr:uid="{46A1EA22-AAA2-4DB3-9FFA-F3A8F27A8513}"/>
-    <hyperlink ref="H55" r:id="rId50" xr:uid="{CCC3FE29-59F9-4DC7-9BC5-04B382A13865}"/>
-    <hyperlink ref="H67" r:id="rId51" xr:uid="{D506A12F-3EF8-48AE-84C0-A1BDE5B497EF}"/>
-    <hyperlink ref="H33" r:id="rId52" xr:uid="{B92A5959-6F2F-4C27-85E9-2AEB910FDFBC}"/>
-    <hyperlink ref="H45" r:id="rId53" xr:uid="{1E30D1F8-7922-4602-9F37-461C670F876B}"/>
-    <hyperlink ref="H56" r:id="rId54" xr:uid="{284AD656-B72D-4895-9C1E-276EB161DBD8}"/>
-    <hyperlink ref="H68" r:id="rId55" xr:uid="{9621E1F4-DCAA-4840-AF22-87648F11CED9}"/>
-    <hyperlink ref="H34" r:id="rId56" xr:uid="{3E49C3D7-3D5B-4A48-95D6-9BC2E1344861}"/>
-    <hyperlink ref="H47" r:id="rId57" xr:uid="{C56619D7-D67F-4B1D-9D45-88F70411BBED}"/>
-    <hyperlink ref="H57" r:id="rId58" xr:uid="{F969329E-ED48-45FD-B2C6-A0EDE3D2C3EC}"/>
-    <hyperlink ref="H69" r:id="rId59" xr:uid="{4E9A77DB-7A7B-4245-BB1B-7230CE0BB9A2}"/>
-    <hyperlink ref="H35" r:id="rId60" xr:uid="{64A8D988-0905-4F5C-AD9C-E8B414091555}"/>
-    <hyperlink ref="H46" r:id="rId61" xr:uid="{078665D5-C67A-4D65-94FD-E3A236CA384D}"/>
-    <hyperlink ref="H58" r:id="rId62" xr:uid="{52F9A6BE-B8A9-4676-AA50-B32F4B0B64DA}"/>
-    <hyperlink ref="H36" r:id="rId63" xr:uid="{D94301A0-A2BE-44AA-AD23-838329C715EE}"/>
-    <hyperlink ref="H59" r:id="rId64" xr:uid="{D898D412-B883-4E31-8058-880D57B770AC}"/>
+    <hyperlink ref="H43" r:id="rId41" xr:uid="{14B927AA-2551-498C-B60C-438BC3096E84}"/>
+    <hyperlink ref="H54" r:id="rId42" xr:uid="{89ACDC0E-047E-4961-9A9F-8435E30B6E90}"/>
+    <hyperlink ref="H66" r:id="rId43" xr:uid="{FC283306-4304-4706-B9C8-AC6E7FBA619B}"/>
+    <hyperlink ref="H32" r:id="rId44" xr:uid="{5D594E85-3D9B-46A5-9610-08078D43E336}"/>
+    <hyperlink ref="H44" r:id="rId45" xr:uid="{2B4969A3-7875-44F4-A361-42FA0236C07A}"/>
+    <hyperlink ref="H55" r:id="rId46" xr:uid="{92D26895-C4E4-41F6-91DB-01438D89A436}"/>
+    <hyperlink ref="H67" r:id="rId47" xr:uid="{0F5A8C5E-52D4-4DD3-9E32-D736E2C4BD68}"/>
+    <hyperlink ref="H33" r:id="rId48" xr:uid="{719E16F9-C1CD-4569-B52F-84FCA542F2C7}"/>
+    <hyperlink ref="H45" r:id="rId49" xr:uid="{46A1EA22-AAA2-4DB3-9FFA-F3A8F27A8513}"/>
+    <hyperlink ref="H56" r:id="rId50" xr:uid="{CCC3FE29-59F9-4DC7-9BC5-04B382A13865}"/>
+    <hyperlink ref="H68" r:id="rId51" xr:uid="{D506A12F-3EF8-48AE-84C0-A1BDE5B497EF}"/>
+    <hyperlink ref="H34" r:id="rId52" xr:uid="{B92A5959-6F2F-4C27-85E9-2AEB910FDFBC}"/>
+    <hyperlink ref="H46" r:id="rId53" xr:uid="{1E30D1F8-7922-4602-9F37-461C670F876B}"/>
+    <hyperlink ref="H57" r:id="rId54" xr:uid="{284AD656-B72D-4895-9C1E-276EB161DBD8}"/>
+    <hyperlink ref="H69" r:id="rId55" xr:uid="{9621E1F4-DCAA-4840-AF22-87648F11CED9}"/>
+    <hyperlink ref="H35" r:id="rId56" xr:uid="{3E49C3D7-3D5B-4A48-95D6-9BC2E1344861}"/>
+    <hyperlink ref="H48" r:id="rId57" xr:uid="{C56619D7-D67F-4B1D-9D45-88F70411BBED}"/>
+    <hyperlink ref="H58" r:id="rId58" xr:uid="{F969329E-ED48-45FD-B2C6-A0EDE3D2C3EC}"/>
+    <hyperlink ref="H70" r:id="rId59" xr:uid="{4E9A77DB-7A7B-4245-BB1B-7230CE0BB9A2}"/>
+    <hyperlink ref="H36" r:id="rId60" xr:uid="{64A8D988-0905-4F5C-AD9C-E8B414091555}"/>
+    <hyperlink ref="H47" r:id="rId61" xr:uid="{078665D5-C67A-4D65-94FD-E3A236CA384D}"/>
+    <hyperlink ref="H59" r:id="rId62" xr:uid="{52F9A6BE-B8A9-4676-AA50-B32F4B0B64DA}"/>
+    <hyperlink ref="H37" r:id="rId63" xr:uid="{D94301A0-A2BE-44AA-AD23-838329C715EE}"/>
+    <hyperlink ref="H60" r:id="rId64" xr:uid="{D898D412-B883-4E31-8058-880D57B770AC}"/>
     <hyperlink ref="H3" r:id="rId65" xr:uid="{39195E11-54A4-42ED-8969-A345C29FF1ED}"/>
     <hyperlink ref="H4" r:id="rId66" xr:uid="{9F5BBBDC-EDBC-4837-B84E-1CEBA45CA6CC}"/>
     <hyperlink ref="H7" r:id="rId67" xr:uid="{5E21EFFF-281A-4A43-86B1-84D382D9E066}"/>
+    <hyperlink ref="H31" r:id="rId68" xr:uid="{12947213-395B-4429-8C53-A286D8E47608}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
-  <legacyDrawing r:id="rId69"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
+  <legacyDrawing r:id="rId70"/>
 </worksheet>
 </file>
 
@@ -10097,8 +10139,8 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5">
-        <f>SUM(Europe!I3:I107)+SUM(America!I3:I25)+SUM(Africa!I3:I12)+SUM('Australia and Oceania'!I3:I21)+SUM(Asia!I3:I69)-100</f>
-        <v>130.15000000000003</v>
+        <f>SUM(Europe!I3:I107)+SUM(America!I3:I25)+SUM(Africa!I3:I12)+SUM('Australia and Oceania'!I3:I21)+SUM(Asia!I3:I70)-100</f>
+        <v>132.76000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
